--- a/0502-Mutual-Fund-Options.xlsx
+++ b/0502-Mutual-Fund-Options.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="1046">
   <si>
     <t>Expense</t>
   </si>
@@ -3025,6 +3025,159 @@
   </si>
   <si>
     <t>var12exec</t>
+  </si>
+  <si>
+    <t>var12</t>
+  </si>
+  <si>
+    <t>var00</t>
+  </si>
+  <si>
+    <t>Mid-cap Opportunities fund</t>
+  </si>
+  <si>
+    <t>Emerging Equity fund</t>
+  </si>
+  <si>
+    <t>Mid cap fund</t>
+  </si>
+  <si>
+    <t>India Growth fund</t>
+  </si>
+  <si>
+    <t>India Prima fund</t>
+  </si>
+  <si>
+    <t>Magnum mid cap fund</t>
+  </si>
+  <si>
+    <t>Mirae</t>
+  </si>
+  <si>
+    <t>Asset Mid cap fund</t>
+  </si>
+  <si>
+    <t>Sun Life Mid cap fund</t>
+  </si>
+  <si>
+    <t>Prudential Mid cap fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal</t>
+  </si>
+  <si>
+    <t>Mid cap 30 fund</t>
+  </si>
+  <si>
+    <t>PGIM</t>
+  </si>
+  <si>
+    <t>India Mid cap fund</t>
+  </si>
+  <si>
+    <t>Mid cap Growth fund</t>
+  </si>
+  <si>
+    <t>BNP</t>
+  </si>
+  <si>
+    <t>Paribas Mid cap fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife</t>
+  </si>
+  <si>
+    <t>Mid cap unnati yojana</t>
+  </si>
+  <si>
+    <t>Taurus</t>
+  </si>
+  <si>
+    <t>Discovery mid cap fund</t>
+  </si>
+  <si>
+    <t>Baroda</t>
+  </si>
+  <si>
+    <t>Mid cap fund - Plan B</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/hdfc-mid-cap-opportunities-fund-direct-plan/portfolio-overview/MHD1161</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/dsp-mid-cap-fund-direct-plan/portfolio-overview/MDS574</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/axis-mid-cap-fund-direct-plan/portfolio-overview/MAA194</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/nippon-india-growth-fund-direct-plan/portfolio-overview/MRC919</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/franklin-india-prima-fund-direct-plan/portfolio-overview/MTE317</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/l-t-midcap-fund-direct-plan/portfolio-overview/MCC275</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/sundaram-mid-cap-fund-direct-plan/portfolio-overview/MSN568</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/sbi-magnum-midcap-fund-direct-plan/portfolio-overview/MSB505</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/uti-mid-cap-fund-direct-plan/portfolio-overview/MUT637</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/mirae-asset-midcap-fund-direct-plan/portfolio-overview/MMA173</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/aditya-birla-sun-life-midcap-fund-direct-plan/portfolio-overview/MBS829</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/icici-prudential-midcap-fund-direct-plan/portfolio-overview/MPI1150</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/motilal-oswal-midcap-30-fund-direct-plan/portfolio-overview/MMO027</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/pgim-india-midcap-opportunities-fund-direct-plan/portfolio-overview/MPA139</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/invesco-india-midcap-fund-direct-plan/portfolio-overview/MLI556</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/edelweiss-mid-cap-fund-direct-plan/portfolio-overview/MJP117</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/tata-mid-cap-growth-fund-direct-plan/portfolio-overview/MTA776</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/bnp-paribas-mid-cap-fund-direct-plan/portfolio-overview/MAB726</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/mahindra-manulife-mid-cap-unnati-yojana-direct-plan/portfolio-overview/MMH037</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/principal-midcap-fund-direct-plan/portfolio-overview/MID398</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/iti-mid-cap-fund-direct-plan/portfolio-overview/MIT055</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/union-midcap-fund-direct-plan/portfolio-overview/MUK152</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/idbi-midcap-fund-direct-plan/portfolio-overview/MIB230</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/quant-mid-cap-fund-direct-plan/portfolio-overview/MES043</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/taurus-discovery-midcap-fund-direct-plan/portfolio-overview/MCM132</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/mutual-funds/baroda-pioneer-mid-cap-fund-direct-plan-b/portfolio-overview/MBO097</t>
   </si>
 </sst>
 </file>
@@ -25898,1113 +26051,2661 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1" t="s">
         <v>983</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>984</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>985</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>986</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>987</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>988</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>989</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>990</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>991</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>992</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>993</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>995</v>
+      </c>
+      <c r="N1" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>270</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>931</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>942</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="G2" t="str">
-        <f>CONCATENATE(A2, " = '", F2, "';")</f>
+      <c r="H2" t="str">
+        <f>CONCATENATE(B2, " = '", G2, "';")</f>
         <v>url1 = 'https://www.moneycontrol.com/mutual-funds/nippon-india-small-cap-fund-direct-plan/portfolio-overview/MRC935';</v>
       </c>
-      <c r="H2" t="str">
-        <f>CONCATENATE(A2, " =  read_html (", A2, ");")</f>
+      <c r="I2" t="str">
+        <f>CONCATENATE(B2, " =  read_html (", B2, ");")</f>
         <v>url1 =  read_html (url1);</v>
       </c>
-      <c r="I2" t="str">
-        <f>CONCATENATE(B2, " = ", A2, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J2" t="str">
+        <f>CONCATENATE(C2, " = ", B2, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl1 = url1 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J2" t="str">
-        <f>CONCATENATE(B2, " = data.table(", B2, ");" )</f>
+      <c r="K2" t="str">
+        <f>CONCATENATE(C2, " = data.table(", C2, ");" )</f>
         <v>url_tbl1 = data.table(url_tbl1);</v>
       </c>
-      <c r="K2" t="str">
-        <f>CONCATENATE(B2, " = ", B2, "[, `:=` (url ='",C2, "', rown =", E2, "),];" )</f>
+      <c r="L2" t="str">
+        <f>CONCATENATE(C2, " = ", C2, "[, `:=` (url ='",D2, "', rown =", F2, "),];" )</f>
         <v>url_tbl1 = url_tbl1[, `:=` (url ='Nippon', rown =1),];</v>
       </c>
-      <c r="L2" t="str">
-        <f>CONCATENATE(G2,H2,I2, J2, K2)</f>
-        <v>url1 = 'https://www.moneycontrol.com/mutual-funds/nippon-india-small-cap-fund-direct-plan/portfolio-overview/MRC935';url1 =  read_html (url1);url_tbl1 = url1 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl1 = data.table(url_tbl1);url_tbl1 = url_tbl1[, `:=` (url ='Nippon', rown =1),];</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="str">
+        <f>CONCATENATE("print(", F2, ");")</f>
+        <v>print(1);</v>
+      </c>
+      <c r="N2" t="str">
+        <f>CONCATENATE(H2,I2,J2, K2, L2, M2)</f>
+        <v>url1 = 'https://www.moneycontrol.com/mutual-funds/nippon-india-small-cap-fund-direct-plan/portfolio-overview/MRC935';url1 =  read_html (url1);url_tbl1 = url1 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl1 = data.table(url_tbl1);url_tbl1 = url_tbl1[, `:=` (url ='Nippon', rown =1),];print(1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>271</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>932</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>941</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="G3" t="str">
-        <f>CONCATENATE(A3, " = '", F3, "';")</f>
+      <c r="H3" t="str">
+        <f>CONCATENATE(B3, " = '", G3, "';")</f>
         <v>url2 = 'https://www.moneycontrol.com/mutual-funds/hdfc-small-cap-fund-direct-plan/portfolio-overview/MMS025';</v>
       </c>
-      <c r="H3" t="str">
-        <f>CONCATENATE(A3, " =  read_html (", A3, ");")</f>
+      <c r="I3" t="str">
+        <f>CONCATENATE(B3, " =  read_html (", B3, ");")</f>
         <v>url2 =  read_html (url2);</v>
       </c>
-      <c r="I3" t="str">
-        <f>CONCATENATE(B3, " = ", A3, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J3" t="str">
+        <f>CONCATENATE(C3, " = ", B3, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl2 = url2 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J3" t="str">
-        <f>CONCATENATE(B3, " = data.table(", B3, ");" )</f>
+      <c r="K3" t="str">
+        <f>CONCATENATE(C3, " = data.table(", C3, ");" )</f>
         <v>url_tbl2 = data.table(url_tbl2);</v>
       </c>
-      <c r="K3" t="str">
-        <f>CONCATENATE(B3, " = ", B3, "[, `:=` (url ='",C3, "', rown =", E3, "),];" )</f>
+      <c r="L3" t="str">
+        <f>CONCATENATE(C3, " = ", C3, "[, `:=` (url ='",D3, "', rown =", F3, "),];" )</f>
         <v>url_tbl2 = url_tbl2[, `:=` (url ='HDFC', rown =2),];</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L24" si="0">CONCATENATE(G3,H3,I3, J3, K3)</f>
-        <v>url2 = 'https://www.moneycontrol.com/mutual-funds/hdfc-small-cap-fund-direct-plan/portfolio-overview/MMS025';url2 =  read_html (url2);url_tbl2 = url2 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl2 = data.table(url_tbl2);url_tbl2 = url_tbl2[, `:=` (url ='HDFC', rown =2),];</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M51" si="0">CONCATENATE("print(", F3, ");")</f>
+        <v>print(2);</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N51" si="1">CONCATENATE(H3,I3,J3, K3, L3, M3)</f>
+        <v>url2 = 'https://www.moneycontrol.com/mutual-funds/hdfc-small-cap-fund-direct-plan/portfolio-overview/MMS025';url2 =  read_html (url2);url_tbl2 = url2 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl2 = data.table(url_tbl2);url_tbl2 = url_tbl2[, `:=` (url ='HDFC', rown =2),];print(2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>272</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>933</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>941</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="G4" t="str">
-        <f>CONCATENATE(A4, " = '", F4, "';")</f>
+      <c r="H4" t="str">
+        <f>CONCATENATE(B4, " = '", G4, "';")</f>
         <v>url3 = 'https://www.moneycontrol.com/mutual-funds/sbi-small-cap-fund-direct-plan/portfolio-overview/MSA031';</v>
       </c>
-      <c r="H4" t="str">
-        <f>CONCATENATE(A4, " =  read_html (", A4, ");")</f>
+      <c r="I4" t="str">
+        <f>CONCATENATE(B4, " =  read_html (", B4, ");")</f>
         <v>url3 =  read_html (url3);</v>
       </c>
-      <c r="I4" t="str">
-        <f>CONCATENATE(B4, " = ", A4, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J4" t="str">
+        <f>CONCATENATE(C4, " = ", B4, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl3 = url3 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J4" t="str">
-        <f>CONCATENATE(B4, " = data.table(", B4, ");" )</f>
+      <c r="K4" t="str">
+        <f>CONCATENATE(C4, " = data.table(", C4, ");" )</f>
         <v>url_tbl3 = data.table(url_tbl3);</v>
       </c>
-      <c r="K4" t="str">
-        <f>CONCATENATE(B4, " = ", B4, "[, `:=` (url ='",C4, "', rown =", E4, "),];" )</f>
+      <c r="L4" t="str">
+        <f>CONCATENATE(C4, " = ", C4, "[, `:=` (url ='",D4, "', rown =", F4, "),];" )</f>
         <v>url_tbl3 = url_tbl3[, `:=` (url ='SBI', rown =3),];</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>url3 = 'https://www.moneycontrol.com/mutual-funds/sbi-small-cap-fund-direct-plan/portfolio-overview/MSA031';url3 =  read_html (url3);url_tbl3 = url3 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl3 = data.table(url_tbl3);url_tbl3 = url_tbl3[, `:=` (url ='SBI', rown =3),];</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>print(3);</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="1"/>
+        <v>url3 = 'https://www.moneycontrol.com/mutual-funds/sbi-small-cap-fund-direct-plan/portfolio-overview/MSA031';url3 =  read_html (url3);url_tbl3 = url3 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl3 = data.table(url_tbl3);url_tbl3 = url_tbl3[, `:=` (url ='SBI', rown =3),];print(3);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>273</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>934</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>941</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="G5" t="str">
-        <f>CONCATENATE(A5, " = '", F5, "';")</f>
+      <c r="H5" t="str">
+        <f>CONCATENATE(B5, " = '", G5, "';")</f>
         <v>url4 = 'https://www.moneycontrol.com/mutual-funds/dsp-small-cap-fund-direct-plan/portfolio-overview/MDS584';</v>
       </c>
-      <c r="H5" t="str">
-        <f>CONCATENATE(A5, " =  read_html (", A5, ");")</f>
+      <c r="I5" t="str">
+        <f>CONCATENATE(B5, " =  read_html (", B5, ");")</f>
         <v>url4 =  read_html (url4);</v>
       </c>
-      <c r="I5" t="str">
-        <f>CONCATENATE(B5, " = ", A5, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J5" t="str">
+        <f>CONCATENATE(C5, " = ", B5, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl4 = url4 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J5" t="str">
-        <f>CONCATENATE(B5, " = data.table(", B5, ");" )</f>
+      <c r="K5" t="str">
+        <f>CONCATENATE(C5, " = data.table(", C5, ");" )</f>
         <v>url_tbl4 = data.table(url_tbl4);</v>
       </c>
-      <c r="K5" t="str">
-        <f>CONCATENATE(B5, " = ", B5, "[, `:=` (url ='",C5, "', rown =", E5, "),];" )</f>
+      <c r="L5" t="str">
+        <f>CONCATENATE(C5, " = ", C5, "[, `:=` (url ='",D5, "', rown =", F5, "),];" )</f>
         <v>url_tbl4 = url_tbl4[, `:=` (url ='DSP', rown =4),];</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>url4 = 'https://www.moneycontrol.com/mutual-funds/dsp-small-cap-fund-direct-plan/portfolio-overview/MDS584';url4 =  read_html (url4);url_tbl4 = url4 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl4 = data.table(url_tbl4);url_tbl4 = url_tbl4[, `:=` (url ='DSP', rown =4),];</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>print(4);</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
+        <v>url4 = 'https://www.moneycontrol.com/mutual-funds/dsp-small-cap-fund-direct-plan/portfolio-overview/MDS584';url4 =  read_html (url4);url_tbl4 = url4 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl4 = data.table(url_tbl4);url_tbl4 = url_tbl4[, `:=` (url ='DSP', rown =4),];print(4);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>274</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>935</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>939</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>964</v>
       </c>
-      <c r="G6" t="str">
-        <f>CONCATENATE(A6, " = '", F6, "';")</f>
+      <c r="H6" t="str">
+        <f>CONCATENATE(B6, " = '", G6, "';")</f>
         <v>url5 = 'https://www.moneycontrol.com/mutual-funds/l-t-emerging-businesses-fund-direct-plan/portfolio-overview/MCC492';</v>
       </c>
-      <c r="H6" t="str">
-        <f>CONCATENATE(A6, " =  read_html (", A6, ");")</f>
+      <c r="I6" t="str">
+        <f>CONCATENATE(B6, " =  read_html (", B6, ");")</f>
         <v>url5 =  read_html (url5);</v>
       </c>
-      <c r="I6" t="str">
-        <f>CONCATENATE(B6, " = ", A6, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J6" t="str">
+        <f>CONCATENATE(C6, " = ", B6, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl5 = url5 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J6" t="str">
-        <f>CONCATENATE(B6, " = data.table(", B6, ");" )</f>
+      <c r="K6" t="str">
+        <f>CONCATENATE(C6, " = data.table(", C6, ");" )</f>
         <v>url_tbl5 = data.table(url_tbl5);</v>
       </c>
-      <c r="K6" t="str">
-        <f>CONCATENATE(B6, " = ", B6, "[, `:=` (url ='",C6, "', rown =", E6, "),];" )</f>
+      <c r="L6" t="str">
+        <f>CONCATENATE(C6, " = ", C6, "[, `:=` (url ='",D6, "', rown =", F6, "),];" )</f>
         <v>url_tbl5 = url_tbl5[, `:=` (url ='LT', rown =5),];</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>url5 = 'https://www.moneycontrol.com/mutual-funds/l-t-emerging-businesses-fund-direct-plan/portfolio-overview/MCC492';url5 =  read_html (url5);url_tbl5 = url5 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl5 = data.table(url_tbl5);url_tbl5 = url_tbl5[, `:=` (url ='LT', rown =5),];</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>print(5);</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
+        <v>url5 = 'https://www.moneycontrol.com/mutual-funds/l-t-emerging-businesses-fund-direct-plan/portfolio-overview/MCC492';url5 =  read_html (url5);url_tbl5 = url5 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl5 = data.table(url_tbl5);url_tbl5 = url_tbl5[, `:=` (url ='LT', rown =5),];print(5);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>275</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>936</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>940</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>965</v>
       </c>
-      <c r="G7" t="str">
-        <f>CONCATENATE(A7, " = '", F7, "';")</f>
+      <c r="H7" t="str">
+        <f>CONCATENATE(B7, " = '", G7, "';")</f>
         <v>url6 = 'https://www.moneycontrol.com/mutual-funds/franklin-india-smaller-companies-fund-direct-plan/portfolio-overview/MTE313';</v>
       </c>
-      <c r="H7" t="str">
-        <f>CONCATENATE(A7, " =  read_html (", A7, ");")</f>
+      <c r="I7" t="str">
+        <f>CONCATENATE(B7, " =  read_html (", B7, ");")</f>
         <v>url6 =  read_html (url6);</v>
       </c>
-      <c r="I7" t="str">
-        <f>CONCATENATE(B7, " = ", A7, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J7" t="str">
+        <f>CONCATENATE(C7, " = ", B7, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl6 = url6 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J7" t="str">
-        <f>CONCATENATE(B7, " = data.table(", B7, ");" )</f>
+      <c r="K7" t="str">
+        <f>CONCATENATE(C7, " = data.table(", C7, ");" )</f>
         <v>url_tbl6 = data.table(url_tbl6);</v>
       </c>
-      <c r="K7" t="str">
-        <f>CONCATENATE(B7, " = ", B7, "[, `:=` (url ='",C7, "', rown =", E7, "),];" )</f>
+      <c r="L7" t="str">
+        <f>CONCATENATE(C7, " = ", C7, "[, `:=` (url ='",D7, "', rown =", F7, "),];" )</f>
         <v>url_tbl6 = url_tbl6[, `:=` (url ='Fraklin', rown =6),];</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>url6 = 'https://www.moneycontrol.com/mutual-funds/franklin-india-smaller-companies-fund-direct-plan/portfolio-overview/MTE313';url6 =  read_html (url6);url_tbl6 = url6 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl6 = data.table(url_tbl6);url_tbl6 = url_tbl6[, `:=` (url ='Fraklin', rown =6),];</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>print(6);</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v>url6 = 'https://www.moneycontrol.com/mutual-funds/franklin-india-smaller-companies-fund-direct-plan/portfolio-overview/MTE313';url6 =  read_html (url6);url_tbl6 = url6 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl6 = data.table(url_tbl6);url_tbl6 = url_tbl6[, `:=` (url ='Fraklin', rown =6),];print(6);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>276</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>937</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>941</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="G8" t="str">
-        <f>CONCATENATE(A8, " = '", F8, "';")</f>
+      <c r="H8" t="str">
+        <f>CONCATENATE(B8, " = '", G8, "';")</f>
         <v>url7 = 'https://www.moneycontrol.com/mutual-funds/axis-small-cap-fund-direct-plan/portfolio-overview/MAA316';</v>
       </c>
-      <c r="H8" t="str">
-        <f>CONCATENATE(A8, " =  read_html (", A8, ");")</f>
+      <c r="I8" t="str">
+        <f>CONCATENATE(B8, " =  read_html (", B8, ");")</f>
         <v>url7 =  read_html (url7);</v>
       </c>
-      <c r="I8" t="str">
-        <f>CONCATENATE(B8, " = ", A8, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J8" t="str">
+        <f>CONCATENATE(C8, " = ", B8, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl7 = url7 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J8" t="str">
-        <f>CONCATENATE(B8, " = data.table(", B8, ");" )</f>
+      <c r="K8" t="str">
+        <f>CONCATENATE(C8, " = data.table(", C8, ");" )</f>
         <v>url_tbl7 = data.table(url_tbl7);</v>
       </c>
-      <c r="K8" t="str">
-        <f>CONCATENATE(B8, " = ", B8, "[, `:=` (url ='",C8, "', rown =", E8, "),];" )</f>
+      <c r="L8" t="str">
+        <f>CONCATENATE(C8, " = ", C8, "[, `:=` (url ='",D8, "', rown =", F8, "),];" )</f>
         <v>url_tbl7 = url_tbl7[, `:=` (url ='Axis', rown =7),];</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>url7 = 'https://www.moneycontrol.com/mutual-funds/axis-small-cap-fund-direct-plan/portfolio-overview/MAA316';url7 =  read_html (url7);url_tbl7 = url7 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl7 = data.table(url_tbl7);url_tbl7 = url_tbl7[, `:=` (url ='Axis', rown =7),];</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>print(7);</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
+        <v>url7 = 'https://www.moneycontrol.com/mutual-funds/axis-small-cap-fund-direct-plan/portfolio-overview/MAA316';url7 =  read_html (url7);url_tbl7 = url7 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl7 = data.table(url_tbl7);url_tbl7 = url_tbl7[, `:=` (url ='Axis', rown =7),];print(7);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>277</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>938</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>941</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="G9" t="str">
-        <f>CONCATENATE(A9, " = '", F9, "';")</f>
+      <c r="H9" t="str">
+        <f>CONCATENATE(B9, " = '", G9, "';")</f>
         <v>url8 = 'https://www.moneycontrol.com/mutual-funds/kotak-small-cap-fund-direct-plan/portfolio-overview/MKM516';</v>
       </c>
-      <c r="H9" t="str">
-        <f>CONCATENATE(A9, " =  read_html (", A9, ");")</f>
+      <c r="I9" t="str">
+        <f>CONCATENATE(B9, " =  read_html (", B9, ");")</f>
         <v>url8 =  read_html (url8);</v>
       </c>
-      <c r="I9" t="str">
-        <f>CONCATENATE(B9, " = ", A9, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J9" t="str">
+        <f>CONCATENATE(C9, " = ", B9, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl8 = url8 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J9" t="str">
-        <f>CONCATENATE(B9, " = data.table(", B9, ");" )</f>
+      <c r="K9" t="str">
+        <f>CONCATENATE(C9, " = data.table(", C9, ");" )</f>
         <v>url_tbl8 = data.table(url_tbl8);</v>
       </c>
-      <c r="K9" t="str">
-        <f>CONCATENATE(B9, " = ", B9, "[, `:=` (url ='",C9, "', rown =", E9, "),];" )</f>
+      <c r="L9" t="str">
+        <f>CONCATENATE(C9, " = ", C9, "[, `:=` (url ='",D9, "', rown =", F9, "),];" )</f>
         <v>url_tbl8 = url_tbl8[, `:=` (url ='Kotak', rown =8),];</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>url8 = 'https://www.moneycontrol.com/mutual-funds/kotak-small-cap-fund-direct-plan/portfolio-overview/MKM516';url8 =  read_html (url8);url_tbl8 = url8 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl8 = data.table(url_tbl8);url_tbl8 = url_tbl8[, `:=` (url ='Kotak', rown =8),];</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>print(8);</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="1"/>
+        <v>url8 = 'https://www.moneycontrol.com/mutual-funds/kotak-small-cap-fund-direct-plan/portfolio-overview/MKM516';url8 =  read_html (url8);url_tbl8 = url8 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl8 = data.table(url_tbl8);url_tbl8 = url_tbl8[, `:=` (url ='Kotak', rown =8),];print(8);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>278</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>943</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>944</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="G10" t="str">
-        <f>CONCATENATE(A10, " = '", F10, "';")</f>
+      <c r="H10" t="str">
+        <f>CONCATENATE(B10, " = '", G10, "';")</f>
         <v>url9 = 'https://www.moneycontrol.com/mutual-funds/aditya-birla-sun-life-small-cap-fund-direct-plan/portfolio-overview/MBS833';</v>
       </c>
-      <c r="H10" t="str">
-        <f>CONCATENATE(A10, " =  read_html (", A10, ");")</f>
+      <c r="I10" t="str">
+        <f>CONCATENATE(B10, " =  read_html (", B10, ");")</f>
         <v>url9 =  read_html (url9);</v>
       </c>
-      <c r="I10" t="str">
-        <f>CONCATENATE(B10, " = ", A10, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J10" t="str">
+        <f>CONCATENATE(C10, " = ", B10, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl9 = url9 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J10" t="str">
-        <f>CONCATENATE(B10, " = data.table(", B10, ");" )</f>
+      <c r="K10" t="str">
+        <f>CONCATENATE(C10, " = data.table(", C10, ");" )</f>
         <v>url_tbl9 = data.table(url_tbl9);</v>
       </c>
-      <c r="K10" t="str">
-        <f>CONCATENATE(B10, " = ", B10, "[, `:=` (url ='",C10, "', rown =", E10, "),];" )</f>
+      <c r="L10" t="str">
+        <f>CONCATENATE(C10, " = ", C10, "[, `:=` (url ='",D10, "', rown =", F10, "),];" )</f>
         <v>url_tbl9 = url_tbl9[, `:=` (url ='Aditya Birla', rown =9),];</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>url9 = 'https://www.moneycontrol.com/mutual-funds/aditya-birla-sun-life-small-cap-fund-direct-plan/portfolio-overview/MBS833';url9 =  read_html (url9);url_tbl9 = url9 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl9 = data.table(url_tbl9);url_tbl9 = url_tbl9[, `:=` (url ='Aditya Birla', rown =9),];</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>print(9);</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
+        <v>url9 = 'https://www.moneycontrol.com/mutual-funds/aditya-birla-sun-life-small-cap-fund-direct-plan/portfolio-overview/MBS833';url9 =  read_html (url9);url_tbl9 = url9 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl9 = data.table(url_tbl9);url_tbl9 = url_tbl9[, `:=` (url ='Aditya Birla', rown =9),];print(9);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>279</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>945</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>946</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>969</v>
       </c>
-      <c r="G11" t="str">
-        <f>CONCATENATE(A11, " = '", F11, "';")</f>
+      <c r="H11" t="str">
+        <f>CONCATENATE(B11, " = '", G11, "';")</f>
         <v>url10 = 'https://www.moneycontrol.com/mutual-funds/icici-prudential-smallcap-fund-direct-plan/portfolio-overview/MPI1146';</v>
       </c>
-      <c r="H11" t="str">
-        <f>CONCATENATE(A11, " =  read_html (", A11, ");")</f>
+      <c r="I11" t="str">
+        <f>CONCATENATE(B11, " =  read_html (", B11, ");")</f>
         <v>url10 =  read_html (url10);</v>
       </c>
-      <c r="I11" t="str">
-        <f>CONCATENATE(B11, " = ", A11, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J11" t="str">
+        <f>CONCATENATE(C11, " = ", B11, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl10 = url10 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J11" t="str">
-        <f>CONCATENATE(B11, " = data.table(", B11, ");" )</f>
+      <c r="K11" t="str">
+        <f>CONCATENATE(C11, " = data.table(", C11, ");" )</f>
         <v>url_tbl10 = data.table(url_tbl10);</v>
       </c>
-      <c r="K11" t="str">
-        <f>CONCATENATE(B11, " = ", B11, "[, `:=` (url ='",C11, "', rown =", E11, "),];" )</f>
+      <c r="L11" t="str">
+        <f>CONCATENATE(C11, " = ", C11, "[, `:=` (url ='",D11, "', rown =", F11, "),];" )</f>
         <v>url_tbl10 = url_tbl10[, `:=` (url ='ICICI', rown =10),];</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f t="shared" si="0"/>
-        <v>url10 = 'https://www.moneycontrol.com/mutual-funds/icici-prudential-smallcap-fund-direct-plan/portfolio-overview/MPI1146';url10 =  read_html (url10);url_tbl10 = url10 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl10 = data.table(url_tbl10);url_tbl10 = url_tbl10[, `:=` (url ='ICICI', rown =10),];</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>print(10);</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="1"/>
+        <v>url10 = 'https://www.moneycontrol.com/mutual-funds/icici-prudential-smallcap-fund-direct-plan/portfolio-overview/MPI1146';url10 =  read_html (url10);url_tbl10 = url10 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl10 = data.table(url_tbl10);url_tbl10 = url_tbl10[, `:=` (url ='ICICI', rown =10),];print(10);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
         <v>72</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>280</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>947</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>941</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>11</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="G12" t="str">
-        <f>CONCATENATE(A12, " = '", F12, "';")</f>
+      <c r="H12" t="str">
+        <f>CONCATENATE(B12, " = '", G12, "';")</f>
         <v>url11 = 'https://www.moneycontrol.com/mutual-funds/sundaram-small-cap-fund-direct-plan/portfolio-overview/MSN572';</v>
       </c>
-      <c r="H12" t="str">
-        <f>CONCATENATE(A12, " =  read_html (", A12, ");")</f>
+      <c r="I12" t="str">
+        <f>CONCATENATE(B12, " =  read_html (", B12, ");")</f>
         <v>url11 =  read_html (url11);</v>
       </c>
-      <c r="I12" t="str">
-        <f>CONCATENATE(B12, " = ", A12, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J12" t="str">
+        <f>CONCATENATE(C12, " = ", B12, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl11 = url11 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J12" t="str">
-        <f>CONCATENATE(B12, " = data.table(", B12, ");" )</f>
+      <c r="K12" t="str">
+        <f>CONCATENATE(C12, " = data.table(", C12, ");" )</f>
         <v>url_tbl11 = data.table(url_tbl11);</v>
       </c>
-      <c r="K12" t="str">
-        <f>CONCATENATE(B12, " = ", B12, "[, `:=` (url ='",C12, "', rown =", E12, "),];" )</f>
+      <c r="L12" t="str">
+        <f>CONCATENATE(C12, " = ", C12, "[, `:=` (url ='",D12, "', rown =", F12, "),];" )</f>
         <v>url_tbl11 = url_tbl11[, `:=` (url ='Sundaram', rown =11),];</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>url11 = 'https://www.moneycontrol.com/mutual-funds/sundaram-small-cap-fund-direct-plan/portfolio-overview/MSN572';url11 =  read_html (url11);url_tbl11 = url11 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl11 = data.table(url_tbl11);url_tbl11 = url_tbl11[, `:=` (url ='Sundaram', rown =11),];</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>print(11);</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="1"/>
+        <v>url11 = 'https://www.moneycontrol.com/mutual-funds/sundaram-small-cap-fund-direct-plan/portfolio-overview/MSN572';url11 =  read_html (url11);url_tbl11 = url11 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl11 = data.table(url_tbl11);url_tbl11 = url_tbl11[, `:=` (url ='Sundaram', rown =11),];print(11);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>281</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>948</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>941</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>12</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>971</v>
       </c>
-      <c r="G13" t="str">
-        <f>CONCATENATE(A13, " = '", F13, "';")</f>
+      <c r="H13" t="str">
+        <f>CONCATENATE(B13, " = '", G13, "';")</f>
         <v>url12 = 'https://www.moneycontrol.com/mutual-funds/uti-small-cap-fund-direct-plan-/portfolio-overview/MUT3611';</v>
       </c>
-      <c r="H13" t="str">
-        <f>CONCATENATE(A13, " =  read_html (", A13, ");")</f>
+      <c r="I13" t="str">
+        <f>CONCATENATE(B13, " =  read_html (", B13, ");")</f>
         <v>url12 =  read_html (url12);</v>
       </c>
-      <c r="I13" t="str">
-        <f>CONCATENATE(B13, " = ", A13, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J13" t="str">
+        <f>CONCATENATE(C13, " = ", B13, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl12 = url12 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J13" t="str">
-        <f>CONCATENATE(B13, " = data.table(", B13, ");" )</f>
+      <c r="K13" t="str">
+        <f>CONCATENATE(C13, " = data.table(", C13, ");" )</f>
         <v>url_tbl12 = data.table(url_tbl12);</v>
       </c>
-      <c r="K13" t="str">
-        <f>CONCATENATE(B13, " = ", B13, "[, `:=` (url ='",C13, "', rown =", E13, "),];" )</f>
+      <c r="L13" t="str">
+        <f>CONCATENATE(C13, " = ", C13, "[, `:=` (url ='",D13, "', rown =", F13, "),];" )</f>
         <v>url_tbl12 = url_tbl12[, `:=` (url ='UTI', rown =12),];</v>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <f t="shared" si="0"/>
-        <v>url12 = 'https://www.moneycontrol.com/mutual-funds/uti-small-cap-fund-direct-plan-/portfolio-overview/MUT3611';url12 =  read_html (url12);url_tbl12 = url12 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl12 = data.table(url_tbl12);url_tbl12 = url_tbl12[, `:=` (url ='UTI', rown =12),];</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>print(12);</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="1"/>
+        <v>url12 = 'https://www.moneycontrol.com/mutual-funds/uti-small-cap-fund-direct-plan-/portfolio-overview/MUT3611';url12 =  read_html (url12);url_tbl12 = url12 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl12 = data.table(url_tbl12);url_tbl12 = url_tbl12[, `:=` (url ='UTI', rown =12),];print(12);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
         <v>74</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>282</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>949</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>941</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>13</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="G14" t="str">
-        <f>CONCATENATE(A14, " = '", F14, "';")</f>
+      <c r="H14" t="str">
+        <f>CONCATENATE(B14, " = '", G14, "';")</f>
         <v>url13 = 'https://www.moneycontrol.com/mutual-funds/tata-small-cap-fund-direct-plan/portfolio-overview/MTA1305';</v>
       </c>
-      <c r="H14" t="str">
-        <f>CONCATENATE(A14, " =  read_html (", A14, ");")</f>
+      <c r="I14" t="str">
+        <f>CONCATENATE(B14, " =  read_html (", B14, ");")</f>
         <v>url13 =  read_html (url13);</v>
       </c>
-      <c r="I14" t="str">
-        <f>CONCATENATE(B14, " = ", A14, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J14" t="str">
+        <f>CONCATENATE(C14, " = ", B14, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl13 = url13 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J14" t="str">
-        <f>CONCATENATE(B14, " = data.table(", B14, ");" )</f>
+      <c r="K14" t="str">
+        <f>CONCATENATE(C14, " = data.table(", C14, ");" )</f>
         <v>url_tbl13 = data.table(url_tbl13);</v>
       </c>
-      <c r="K14" t="str">
-        <f>CONCATENATE(B14, " = ", B14, "[, `:=` (url ='",C14, "', rown =", E14, "),];" )</f>
+      <c r="L14" t="str">
+        <f>CONCATENATE(C14, " = ", C14, "[, `:=` (url ='",D14, "', rown =", F14, "),];" )</f>
         <v>url_tbl13 = url_tbl13[, `:=` (url ='Tata', rown =13),];</v>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <f t="shared" si="0"/>
-        <v>url13 = 'https://www.moneycontrol.com/mutual-funds/tata-small-cap-fund-direct-plan/portfolio-overview/MTA1305';url13 =  read_html (url13);url_tbl13 = url13 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl13 = data.table(url_tbl13);url_tbl13 = url_tbl13[, `:=` (url ='Tata', rown =13),];</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>print(13);</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="1"/>
+        <v>url13 = 'https://www.moneycontrol.com/mutual-funds/tata-small-cap-fund-direct-plan/portfolio-overview/MTA1305';url13 =  read_html (url13);url_tbl13 = url13 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl13 = data.table(url_tbl13);url_tbl13 = url_tbl13[, `:=` (url ='Tata', rown =13),];print(13);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>283</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>950</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>941</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="G15" t="str">
-        <f>CONCATENATE(A15, " = '", F15, "';")</f>
+      <c r="H15" t="str">
+        <f>CONCATENATE(B15, " = '", G15, "';")</f>
         <v>url14 = 'https://www.moneycontrol.com/mutual-funds/canara-robeco-small-cap-fund-direct-plan/portfolio-overview/MCA312';</v>
       </c>
-      <c r="H15" t="str">
-        <f>CONCATENATE(A15, " =  read_html (", A15, ");")</f>
+      <c r="I15" t="str">
+        <f>CONCATENATE(B15, " =  read_html (", B15, ");")</f>
         <v>url14 =  read_html (url14);</v>
       </c>
-      <c r="I15" t="str">
-        <f>CONCATENATE(B15, " = ", A15, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J15" t="str">
+        <f>CONCATENATE(C15, " = ", B15, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl14 = url14 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J15" t="str">
-        <f>CONCATENATE(B15, " = data.table(", B15, ");" )</f>
+      <c r="K15" t="str">
+        <f>CONCATENATE(C15, " = data.table(", C15, ");" )</f>
         <v>url_tbl14 = data.table(url_tbl14);</v>
       </c>
-      <c r="K15" t="str">
-        <f>CONCATENATE(B15, " = ", B15, "[, `:=` (url ='",C15, "', rown =", E15, "),];" )</f>
+      <c r="L15" t="str">
+        <f>CONCATENATE(C15, " = ", C15, "[, `:=` (url ='",D15, "', rown =", F15, "),];" )</f>
         <v>url_tbl14 = url_tbl14[, `:=` (url ='Canara Robeco', rown =14),];</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <f t="shared" si="0"/>
-        <v>url14 = 'https://www.moneycontrol.com/mutual-funds/canara-robeco-small-cap-fund-direct-plan/portfolio-overview/MCA312';url14 =  read_html (url14);url_tbl14 = url14 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl14 = data.table(url_tbl14);url_tbl14 = url_tbl14[, `:=` (url ='Canara Robeco', rown =14),];</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>print(14);</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="1"/>
+        <v>url14 = 'https://www.moneycontrol.com/mutual-funds/canara-robeco-small-cap-fund-direct-plan/portfolio-overview/MCA312';url14 =  read_html (url14);url_tbl14 = url14 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl14 = data.table(url_tbl14);url_tbl14 = url_tbl14[, `:=` (url ='Canara Robeco', rown =14),];print(14);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>284</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>951</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>939</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>15</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="G16" t="str">
-        <f>CONCATENATE(A16, " = '", F16, "';")</f>
+      <c r="H16" t="str">
+        <f>CONCATENATE(B16, " = '", G16, "';")</f>
         <v>url15 = 'https://www.moneycontrol.com/mutual-funds/idfc-emerging-businesses-fund-direct-plan/portfolio-overview/MAG2104';</v>
       </c>
-      <c r="H16" t="str">
-        <f>CONCATENATE(A16, " =  read_html (", A16, ");")</f>
+      <c r="I16" t="str">
+        <f>CONCATENATE(B16, " =  read_html (", B16, ");")</f>
         <v>url15 =  read_html (url15);</v>
       </c>
-      <c r="I16" t="str">
-        <f>CONCATENATE(B16, " = ", A16, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J16" t="str">
+        <f>CONCATENATE(C16, " = ", B16, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl15 = url15 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J16" t="str">
-        <f>CONCATENATE(B16, " = data.table(", B16, ");" )</f>
+      <c r="K16" t="str">
+        <f>CONCATENATE(C16, " = data.table(", C16, ");" )</f>
         <v>url_tbl15 = data.table(url_tbl15);</v>
       </c>
-      <c r="K16" t="str">
-        <f>CONCATENATE(B16, " = ", B16, "[, `:=` (url ='",C16, "', rown =", E16, "),];" )</f>
+      <c r="L16" t="str">
+        <f>CONCATENATE(C16, " = ", C16, "[, `:=` (url ='",D16, "', rown =", F16, "),];" )</f>
         <v>url_tbl15 = url_tbl15[, `:=` (url ='IDFC', rown =15),];</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f t="shared" si="0"/>
-        <v>url15 = 'https://www.moneycontrol.com/mutual-funds/idfc-emerging-businesses-fund-direct-plan/portfolio-overview/MAG2104';url15 =  read_html (url15);url_tbl15 = url15 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl15 = data.table(url_tbl15);url_tbl15 = url_tbl15[, `:=` (url ='IDFC', rown =15),];</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>print(15);</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="1"/>
+        <v>url15 = 'https://www.moneycontrol.com/mutual-funds/idfc-emerging-businesses-fund-direct-plan/portfolio-overview/MAG2104';url15 =  read_html (url15);url_tbl15 = url15 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl15 = data.table(url_tbl15);url_tbl15 = url_tbl15[, `:=` (url ='IDFC', rown =15),];print(15);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
         <v>77</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>285</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>952</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>942</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>16</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="G17" t="str">
-        <f>CONCATENATE(A17, " = '", F17, "';")</f>
+      <c r="H17" t="str">
+        <f>CONCATENATE(B17, " = '", G17, "';")</f>
         <v>url16 = 'https://www.moneycontrol.com/mutual-funds/invesco-india-smallcap-fund-direct-plan/portfolio-overview/MLI1094';</v>
       </c>
-      <c r="H17" t="str">
-        <f>CONCATENATE(A17, " =  read_html (", A17, ");")</f>
+      <c r="I17" t="str">
+        <f>CONCATENATE(B17, " =  read_html (", B17, ");")</f>
         <v>url16 =  read_html (url16);</v>
       </c>
-      <c r="I17" t="str">
-        <f>CONCATENATE(B17, " = ", A17, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J17" t="str">
+        <f>CONCATENATE(C17, " = ", B17, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl16 = url16 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J17" t="str">
-        <f>CONCATENATE(B17, " = data.table(", B17, ");" )</f>
+      <c r="K17" t="str">
+        <f>CONCATENATE(C17, " = data.table(", C17, ");" )</f>
         <v>url_tbl16 = data.table(url_tbl16);</v>
       </c>
-      <c r="K17" t="str">
-        <f>CONCATENATE(B17, " = ", B17, "[, `:=` (url ='",C17, "', rown =", E17, "),];" )</f>
+      <c r="L17" t="str">
+        <f>CONCATENATE(C17, " = ", C17, "[, `:=` (url ='",D17, "', rown =", F17, "),];" )</f>
         <v>url_tbl16 = url_tbl16[, `:=` (url ='Invesco', rown =16),];</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <f t="shared" si="0"/>
-        <v>url16 = 'https://www.moneycontrol.com/mutual-funds/invesco-india-smallcap-fund-direct-plan/portfolio-overview/MLI1094';url16 =  read_html (url16);url_tbl16 = url16 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl16 = data.table(url_tbl16);url_tbl16 = url_tbl16[, `:=` (url ='Invesco', rown =16),];</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>print(16);</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="1"/>
+        <v>url16 = 'https://www.moneycontrol.com/mutual-funds/invesco-india-smallcap-fund-direct-plan/portfolio-overview/MLI1094';url16 =  read_html (url16);url_tbl16 = url16 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl16 = data.table(url_tbl16);url_tbl16 = url_tbl16[, `:=` (url ='Invesco', rown =16),];print(16);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>286</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>953</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>941</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>17</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="G18" t="str">
-        <f>CONCATENATE(A18, " = '", F18, "';")</f>
+      <c r="H18" t="str">
+        <f>CONCATENATE(B18, " = '", G18, "';")</f>
         <v>url17 = 'https://www.moneycontrol.com/mutual-funds/edelweiss-small-cap-fund-direct-plan/portfolio-overview/MJP351';</v>
       </c>
-      <c r="H18" t="str">
-        <f>CONCATENATE(A18, " =  read_html (", A18, ");")</f>
+      <c r="I18" t="str">
+        <f>CONCATENATE(B18, " =  read_html (", B18, ");")</f>
         <v>url17 =  read_html (url17);</v>
       </c>
-      <c r="I18" t="str">
-        <f>CONCATENATE(B18, " = ", A18, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J18" t="str">
+        <f>CONCATENATE(C18, " = ", B18, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl17 = url17 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J18" t="str">
-        <f>CONCATENATE(B18, " = data.table(", B18, ");" )</f>
+      <c r="K18" t="str">
+        <f>CONCATENATE(C18, " = data.table(", C18, ");" )</f>
         <v>url_tbl17 = data.table(url_tbl17);</v>
       </c>
-      <c r="K18" t="str">
-        <f>CONCATENATE(B18, " = ", B18, "[, `:=` (url ='",C18, "', rown =", E18, "),];" )</f>
+      <c r="L18" t="str">
+        <f>CONCATENATE(C18, " = ", C18, "[, `:=` (url ='",D18, "', rown =", F18, "),];" )</f>
         <v>url_tbl17 = url_tbl17[, `:=` (url ='Edelweiss', rown =17),];</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f t="shared" si="0"/>
-        <v>url17 = 'https://www.moneycontrol.com/mutual-funds/edelweiss-small-cap-fund-direct-plan/portfolio-overview/MJP351';url17 =  read_html (url17);url_tbl17 = url17 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl17 = data.table(url_tbl17);url_tbl17 = url_tbl17[, `:=` (url ='Edelweiss', rown =17),];</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>print(17);</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="1"/>
+        <v>url17 = 'https://www.moneycontrol.com/mutual-funds/edelweiss-small-cap-fund-direct-plan/portfolio-overview/MJP351';url17 =  read_html (url17);url_tbl17 = url17 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl17 = data.table(url_tbl17);url_tbl17 = url_tbl17[, `:=` (url ='Edelweiss', rown =17),];print(17);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
         <v>79</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>287</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>954</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>941</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="G19" t="str">
-        <f>CONCATENATE(A19, " = '", F19, "';")</f>
+      <c r="H19" t="str">
+        <f>CONCATENATE(B19, " = '", G19, "';")</f>
         <v>url18 = 'https://www.moneycontrol.com/mutual-funds/quant-small-cap-fund-direct-plan/portfolio-overview/MES056';</v>
       </c>
-      <c r="H19" t="str">
-        <f>CONCATENATE(A19, " =  read_html (", A19, ");")</f>
+      <c r="I19" t="str">
+        <f>CONCATENATE(B19, " =  read_html (", B19, ");")</f>
         <v>url18 =  read_html (url18);</v>
       </c>
-      <c r="I19" t="str">
-        <f>CONCATENATE(B19, " = ", A19, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J19" t="str">
+        <f>CONCATENATE(C19, " = ", B19, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl18 = url18 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J19" t="str">
-        <f>CONCATENATE(B19, " = data.table(", B19, ");" )</f>
+      <c r="K19" t="str">
+        <f>CONCATENATE(C19, " = data.table(", C19, ");" )</f>
         <v>url_tbl18 = data.table(url_tbl18);</v>
       </c>
-      <c r="K19" t="str">
-        <f>CONCATENATE(B19, " = ", B19, "[, `:=` (url ='",C19, "', rown =", E19, "),];" )</f>
+      <c r="L19" t="str">
+        <f>CONCATENATE(C19, " = ", C19, "[, `:=` (url ='",D19, "', rown =", F19, "),];" )</f>
         <v>url_tbl18 = url_tbl18[, `:=` (url ='Quant', rown =18),];</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f t="shared" si="0"/>
-        <v>url18 = 'https://www.moneycontrol.com/mutual-funds/quant-small-cap-fund-direct-plan/portfolio-overview/MES056';url18 =  read_html (url18);url_tbl18 = url18 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl18 = data.table(url_tbl18);url_tbl18 = url_tbl18[, `:=` (url ='Quant', rown =18),];</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>print(18);</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
+        <v>url18 = 'https://www.moneycontrol.com/mutual-funds/quant-small-cap-fund-direct-plan/portfolio-overview/MES056';url18 =  read_html (url18);url_tbl18 = url18 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl18 = data.table(url_tbl18);url_tbl18 = url_tbl18[, `:=` (url ='Quant', rown =18),];print(18);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
         <v>80</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>288</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>955</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>941</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>19</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>978</v>
       </c>
-      <c r="G20" t="str">
-        <f>CONCATENATE(A20, " = '", F20, "';")</f>
+      <c r="H20" t="str">
+        <f>CONCATENATE(B20, " = '", G20, "';")</f>
         <v>url19 = 'https://www.moneycontrol.com/mutual-funds/union-small-cap-fund-direct-plan/portfolio-overview/MUK091';</v>
       </c>
-      <c r="H20" t="str">
-        <f>CONCATENATE(A20, " =  read_html (", A20, ");")</f>
+      <c r="I20" t="str">
+        <f>CONCATENATE(B20, " =  read_html (", B20, ");")</f>
         <v>url19 =  read_html (url19);</v>
       </c>
-      <c r="I20" t="str">
-        <f>CONCATENATE(B20, " = ", A20, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J20" t="str">
+        <f>CONCATENATE(C20, " = ", B20, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl19 = url19 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J20" t="str">
-        <f>CONCATENATE(B20, " = data.table(", B20, ");" )</f>
+      <c r="K20" t="str">
+        <f>CONCATENATE(C20, " = data.table(", C20, ");" )</f>
         <v>url_tbl19 = data.table(url_tbl19);</v>
       </c>
-      <c r="K20" t="str">
-        <f>CONCATENATE(B20, " = ", B20, "[, `:=` (url ='",C20, "', rown =", E20, "),];" )</f>
+      <c r="L20" t="str">
+        <f>CONCATENATE(C20, " = ", C20, "[, `:=` (url ='",D20, "', rown =", F20, "),];" )</f>
         <v>url_tbl19 = url_tbl19[, `:=` (url ='Union', rown =19),];</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f t="shared" si="0"/>
-        <v>url19 = 'https://www.moneycontrol.com/mutual-funds/union-small-cap-fund-direct-plan/portfolio-overview/MUK091';url19 =  read_html (url19);url_tbl19 = url19 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl19 = data.table(url_tbl19);url_tbl19 = url_tbl19[, `:=` (url ='Union', rown =19),];</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>print(19);</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="1"/>
+        <v>url19 = 'https://www.moneycontrol.com/mutual-funds/union-small-cap-fund-direct-plan/portfolio-overview/MUK091';url19 =  read_html (url19);url_tbl19 = url19 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl19 = data.table(url_tbl19);url_tbl19 = url_tbl19[, `:=` (url ='Union', rown =19),];print(19);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>289</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>956</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>941</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>20</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="G21" t="str">
-        <f>CONCATENATE(A21, " = '", F21, "';")</f>
+      <c r="H21" t="str">
+        <f>CONCATENATE(B21, " = '", G21, "';")</f>
         <v>url20 = 'https://www.moneycontrol.com/mutual-funds/principal-small-cap-fund-direct-plan/portfolio-overview/MID394';</v>
       </c>
-      <c r="H21" t="str">
-        <f>CONCATENATE(A21, " =  read_html (", A21, ");")</f>
+      <c r="I21" t="str">
+        <f>CONCATENATE(B21, " =  read_html (", B21, ");")</f>
         <v>url20 =  read_html (url20);</v>
       </c>
-      <c r="I21" t="str">
-        <f>CONCATENATE(B21, " = ", A21, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J21" t="str">
+        <f>CONCATENATE(C21, " = ", B21, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl20 = url20 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J21" t="str">
-        <f>CONCATENATE(B21, " = data.table(", B21, ");" )</f>
+      <c r="K21" t="str">
+        <f>CONCATENATE(C21, " = data.table(", C21, ");" )</f>
         <v>url_tbl20 = data.table(url_tbl20);</v>
       </c>
-      <c r="K21" t="str">
-        <f>CONCATENATE(B21, " = ", B21, "[, `:=` (url ='",C21, "', rown =", E21, "),];" )</f>
+      <c r="L21" t="str">
+        <f>CONCATENATE(C21, " = ", C21, "[, `:=` (url ='",D21, "', rown =", F21, "),];" )</f>
         <v>url_tbl20 = url_tbl20[, `:=` (url ='Principal', rown =20),];</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f t="shared" si="0"/>
-        <v>url20 = 'https://www.moneycontrol.com/mutual-funds/principal-small-cap-fund-direct-plan/portfolio-overview/MID394';url20 =  read_html (url20);url_tbl20 = url20 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl20 = data.table(url_tbl20);url_tbl20 = url_tbl20[, `:=` (url ='Principal', rown =20),];</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>print(20);</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="1"/>
+        <v>url20 = 'https://www.moneycontrol.com/mutual-funds/principal-small-cap-fund-direct-plan/portfolio-overview/MID394';url20 =  read_html (url20);url_tbl20 = url20 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl20 = data.table(url_tbl20);url_tbl20 = url_tbl20[, `:=` (url ='Principal', rown =20),];print(20);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
         <v>82</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>290</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>957</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>941</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>21</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="G22" t="str">
-        <f>CONCATENATE(A22, " = '", F22, "';")</f>
+      <c r="H22" t="str">
+        <f>CONCATENATE(B22, " = '", G22, "';")</f>
         <v>url21 = 'https://www.moneycontrol.com/mutual-funds/iti-small-cap-fund-direct-plan/portfolio-overview/MIT043';</v>
       </c>
-      <c r="H22" t="str">
-        <f>CONCATENATE(A22, " =  read_html (", A22, ");")</f>
+      <c r="I22" t="str">
+        <f>CONCATENATE(B22, " =  read_html (", B22, ");")</f>
         <v>url21 =  read_html (url21);</v>
       </c>
-      <c r="I22" t="str">
-        <f>CONCATENATE(B22, " = ", A22, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J22" t="str">
+        <f>CONCATENATE(C22, " = ", B22, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl21 = url21 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J22" t="str">
-        <f>CONCATENATE(B22, " = data.table(", B22, ");" )</f>
+      <c r="K22" t="str">
+        <f>CONCATENATE(C22, " = data.table(", C22, ");" )</f>
         <v>url_tbl21 = data.table(url_tbl21);</v>
       </c>
-      <c r="K22" t="str">
-        <f>CONCATENATE(B22, " = ", B22, "[, `:=` (url ='",C22, "', rown =", E22, "),];" )</f>
+      <c r="L22" t="str">
+        <f>CONCATENATE(C22, " = ", C22, "[, `:=` (url ='",D22, "', rown =", F22, "),];" )</f>
         <v>url_tbl21 = url_tbl21[, `:=` (url ='ITI', rown =21),];</v>
       </c>
-      <c r="L22" t="str">
+      <c r="M22" t="str">
         <f t="shared" si="0"/>
-        <v>url21 = 'https://www.moneycontrol.com/mutual-funds/iti-small-cap-fund-direct-plan/portfolio-overview/MIT043';url21 =  read_html (url21);url_tbl21 = url21 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl21 = data.table(url_tbl21);url_tbl21 = url_tbl21[, `:=` (url ='ITI', rown =21),];</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>print(21);</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="1"/>
+        <v>url21 = 'https://www.moneycontrol.com/mutual-funds/iti-small-cap-fund-direct-plan/portfolio-overview/MIT043';url21 =  read_html (url21);url_tbl21 = url21 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl21 = data.table(url_tbl21);url_tbl21 = url_tbl21[, `:=` (url ='ITI', rown =21),];print(21);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>83</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>291</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>958</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>941</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>22</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>981</v>
       </c>
-      <c r="G23" t="str">
-        <f>CONCATENATE(A23, " = '", F23, "';")</f>
+      <c r="H23" t="str">
+        <f>CONCATENATE(B23, " = '", G23, "';")</f>
         <v>url22 = 'https://www.moneycontrol.com/mutual-funds/boi-axa-small-cap-fund-direct-plan/portfolio-overview/MBA203';</v>
       </c>
-      <c r="H23" t="str">
-        <f>CONCATENATE(A23, " =  read_html (", A23, ");")</f>
+      <c r="I23" t="str">
+        <f>CONCATENATE(B23, " =  read_html (", B23, ");")</f>
         <v>url22 =  read_html (url22);</v>
       </c>
-      <c r="I23" t="str">
-        <f>CONCATENATE(B23, " = ", A23, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J23" t="str">
+        <f>CONCATENATE(C23, " = ", B23, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl22 = url22 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J23" t="str">
-        <f>CONCATENATE(B23, " = data.table(", B23, ");" )</f>
+      <c r="K23" t="str">
+        <f>CONCATENATE(C23, " = data.table(", C23, ");" )</f>
         <v>url_tbl22 = data.table(url_tbl22);</v>
       </c>
-      <c r="K23" t="str">
-        <f>CONCATENATE(B23, " = ", B23, "[, `:=` (url ='",C23, "', rown =", E23, "),];" )</f>
+      <c r="L23" t="str">
+        <f>CONCATENATE(C23, " = ", C23, "[, `:=` (url ='",D23, "', rown =", F23, "),];" )</f>
         <v>url_tbl22 = url_tbl22[, `:=` (url ='BOI AXA', rown =22),];</v>
       </c>
-      <c r="L23" t="str">
+      <c r="M23" t="str">
         <f t="shared" si="0"/>
-        <v>url22 = 'https://www.moneycontrol.com/mutual-funds/boi-axa-small-cap-fund-direct-plan/portfolio-overview/MBA203';url22 =  read_html (url22);url_tbl22 = url22 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl22 = data.table(url_tbl22);url_tbl22 = url_tbl22[, `:=` (url ='BOI AXA', rown =22),];</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>print(22);</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="1"/>
+        <v>url22 = 'https://www.moneycontrol.com/mutual-funds/boi-axa-small-cap-fund-direct-plan/portfolio-overview/MBA203';url22 =  read_html (url22);url_tbl22 = url22 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl22 = data.table(url_tbl22);url_tbl22 = url_tbl22[, `:=` (url ='BOI AXA', rown =22),];print(22);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
         <v>84</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>292</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>959</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>941</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>23</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="G24" t="str">
-        <f>CONCATENATE(A24, " = '", F24, "';")</f>
+      <c r="H24" t="str">
+        <f>CONCATENATE(B24, " = '", G24, "';")</f>
         <v>url23 = 'https://www.moneycontrol.com/mutual-funds/idbi-small-cap-fund-direct-plan/portfolio-overview/MIB234';</v>
       </c>
-      <c r="H24" t="str">
-        <f>CONCATENATE(A24, " =  read_html (", A24, ");")</f>
+      <c r="I24" t="str">
+        <f>CONCATENATE(B24, " =  read_html (", B24, ");")</f>
         <v>url23 =  read_html (url23);</v>
       </c>
-      <c r="I24" t="str">
-        <f>CONCATENATE(B24, " = ", A24, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+      <c r="J24" t="str">
+        <f>CONCATENATE(C24, " = ", B24, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl23 = url23 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
-      <c r="J24" t="str">
-        <f>CONCATENATE(B24, " = data.table(", B24, ");" )</f>
+      <c r="K24" t="str">
+        <f>CONCATENATE(C24, " = data.table(", C24, ");" )</f>
         <v>url_tbl23 = data.table(url_tbl23);</v>
       </c>
-      <c r="K24" t="str">
-        <f>CONCATENATE(B24, " = ", B24, "[, `:=` (url ='",C24, "', rown =", E24, "),];" )</f>
+      <c r="L24" t="str">
+        <f>CONCATENATE(C24, " = ", C24, "[, `:=` (url ='",D24, "', rown =", F24, "),];" )</f>
         <v>url_tbl23 = url_tbl23[, `:=` (url ='IDBI', rown =23),];</v>
       </c>
-      <c r="L24" t="str">
+      <c r="M24" t="str">
         <f t="shared" si="0"/>
-        <v>url23 = 'https://www.moneycontrol.com/mutual-funds/idbi-small-cap-fund-direct-plan/portfolio-overview/MIB234';url23 =  read_html (url23);url_tbl23 = url23 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl23 = data.table(url_tbl23);url_tbl23 = url_tbl23[, `:=` (url ='IDBI', rown =23),];</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>print(23);</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="1"/>
+        <v>url23 = 'https://www.moneycontrol.com/mutual-funds/idbi-small-cap-fund-direct-plan/portfolio-overview/MIB234';url23 =  read_html (url23);url_tbl23 = url23 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl23 = data.table(url_tbl23);url_tbl23 = url_tbl23[, `:=` (url ='IDBI', rown =23),];print(23);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
         <v>85</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>293</v>
       </c>
-      <c r="E25">
+      <c r="D25" t="s">
+        <v>932</v>
+      </c>
+      <c r="E25" t="s">
+        <v>997</v>
+      </c>
+      <c r="F25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="G25" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H25" t="str">
+        <f>CONCATENATE(B25, " = '", G25, "';")</f>
+        <v>url24 = 'https://www.moneycontrol.com/mutual-funds/hdfc-mid-cap-opportunities-fund-direct-plan/portfolio-overview/MHD1161';</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" ref="I25:I51" si="2">CONCATENATE(B25, " =  read_html (", B25, ");")</f>
+        <v>url24 =  read_html (url24);</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" ref="J25:J51" si="3">CONCATENATE(C25, " = ", B25, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <v>url_tbl24 = url24 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" ref="K25:K51" si="4">CONCATENATE(C25, " = data.table(", C25, ");" )</f>
+        <v>url_tbl24 = data.table(url_tbl24);</v>
+      </c>
+      <c r="L25" t="str">
+        <f>CONCATENATE(C25, " = ", C25, "[, `:=` (url ='",D25, "', rown =", F25, "),];" )</f>
+        <v>url_tbl24 = url_tbl24[, `:=` (url ='HDFC', rown =24),];</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v>print(24);</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="1"/>
+        <v>url24 = 'https://www.moneycontrol.com/mutual-funds/hdfc-mid-cap-opportunities-fund-direct-plan/portfolio-overview/MHD1161';url24 =  read_html (url24);url_tbl24 = url24 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl24 = data.table(url_tbl24);url_tbl24 = url_tbl24[, `:=` (url ='HDFC', rown =24),];print(24);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
         <v>86</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>294</v>
+      </c>
+      <c r="D26" t="s">
+        <v>938</v>
+      </c>
+      <c r="E26" t="s">
+        <v>998</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="H26" t="str">
+        <f>CONCATENATE(B26, " = '", G26, "';")</f>
+        <v>url25 = '';</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>url25 =  read_html (url25);</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl25 = url25 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl25 = data.table(url_tbl25);</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" ref="L26:L51" si="5">CONCATENATE(C26, " = ", C26, "[, `:=` (url ='",D26, "', rown =", F26, "),];" )</f>
+        <v>url_tbl25 = url_tbl25[, `:=` (url ='Kotak', rown =25),];</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v>print(25);</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="1"/>
+        <v>url25 = '';url25 =  read_html (url25);url_tbl25 = url25 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl25 = data.table(url_tbl25);url_tbl25 = url_tbl25[, `:=` (url ='Kotak', rown =25),];print(25);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D27" t="s">
+        <v>934</v>
+      </c>
+      <c r="E27" t="s">
+        <v>999</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H27" t="str">
+        <f>CONCATENATE(B27, " = '", G27, "';")</f>
+        <v>url26 = 'https://www.moneycontrol.com/mutual-funds/dsp-mid-cap-fund-direct-plan/portfolio-overview/MDS574';</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v>url26 =  read_html (url26);</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl26 = url26 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl26 = data.table(url_tbl26);</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl26 = url_tbl26[, `:=` (url ='DSP', rown =26),];</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v>print(26);</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="1"/>
+        <v>url26 = 'https://www.moneycontrol.com/mutual-funds/dsp-mid-cap-fund-direct-plan/portfolio-overview/MDS574';url26 =  read_html (url26);url_tbl26 = url26 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl26 = data.table(url_tbl26);url_tbl26 = url_tbl26[, `:=` (url ='DSP', rown =26),];print(26);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>296</v>
+      </c>
+      <c r="D28" t="s">
+        <v>937</v>
+      </c>
+      <c r="E28" t="s">
+        <v>999</v>
+      </c>
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" ref="H28:H51" si="6">CONCATENATE(B28, " = '", G28, "';")</f>
+        <v>url27 = 'https://www.moneycontrol.com/mutual-funds/axis-mid-cap-fund-direct-plan/portfolio-overview/MAA194';</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v>url27 =  read_html (url27);</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl27 = url27 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl27 = data.table(url_tbl27);</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl27 = url_tbl27[, `:=` (url ='Axis', rown =27),];</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v>print(27);</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="1"/>
+        <v>url27 = 'https://www.moneycontrol.com/mutual-funds/axis-mid-cap-fund-direct-plan/portfolio-overview/MAA194';url27 =  read_html (url27);url_tbl27 = url27 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl27 = data.table(url_tbl27);url_tbl27 = url_tbl27[, `:=` (url ='Axis', rown =27),];print(27);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" t="s">
+        <v>931</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="6"/>
+        <v>url28 = 'https://www.moneycontrol.com/mutual-funds/nippon-india-growth-fund-direct-plan/portfolio-overview/MRC919';</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>url28 =  read_html (url28);</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl28 = url28 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl28 = data.table(url_tbl28);</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl28 = url_tbl28[, `:=` (url ='Nippon', rown =28),];</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v>print(28);</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="1"/>
+        <v>url28 = 'https://www.moneycontrol.com/mutual-funds/nippon-india-growth-fund-direct-plan/portfolio-overview/MRC919';url28 =  read_html (url28);url_tbl28 = url28 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl28 = data.table(url_tbl28);url_tbl28 = url_tbl28[, `:=` (url ='Nippon', rown =28),];print(28);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>298</v>
+      </c>
+      <c r="D30" t="s">
+        <v>936</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="6"/>
+        <v>url29 = 'https://www.moneycontrol.com/mutual-funds/franklin-india-prima-fund-direct-plan/portfolio-overview/MTE317';</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>url29 =  read_html (url29);</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl29 = url29 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl29 = data.table(url_tbl29);</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl29 = url_tbl29[, `:=` (url ='Fraklin', rown =29),];</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="0"/>
+        <v>print(29);</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="1"/>
+        <v>url29 = 'https://www.moneycontrol.com/mutual-funds/franklin-india-prima-fund-direct-plan/portfolio-overview/MTE317';url29 =  read_html (url29);url_tbl29 = url29 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl29 = data.table(url_tbl29);url_tbl29 = url_tbl29[, `:=` (url ='Fraklin', rown =29),];print(29);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D31" t="s">
+        <v>935</v>
+      </c>
+      <c r="E31" t="s">
+        <v>999</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="6"/>
+        <v>url30 = 'https://www.moneycontrol.com/mutual-funds/l-t-midcap-fund-direct-plan/portfolio-overview/MCC275';</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>url30 =  read_html (url30);</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl30 = url30 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl30 = data.table(url_tbl30);</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl30 = url_tbl30[, `:=` (url ='LT', rown =30),];</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="0"/>
+        <v>print(30);</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="1"/>
+        <v>url30 = 'https://www.moneycontrol.com/mutual-funds/l-t-midcap-fund-direct-plan/portfolio-overview/MCC275';url30 =  read_html (url30);url_tbl30 = url30 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl30 = data.table(url_tbl30);url_tbl30 = url_tbl30[, `:=` (url ='LT', rown =30),];print(30);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" t="s">
+        <v>947</v>
+      </c>
+      <c r="E32" t="s">
+        <v>999</v>
+      </c>
+      <c r="F32">
+        <v>31</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="6"/>
+        <v>url31 = 'https://www.moneycontrol.com/mutual-funds/sundaram-mid-cap-fund-direct-plan/portfolio-overview/MSN568';</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>url31 =  read_html (url31);</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl31 = url31 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl31 = data.table(url_tbl31);</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl31 = url_tbl31[, `:=` (url ='Sundaram', rown =31),];</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="0"/>
+        <v>print(31);</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="1"/>
+        <v>url31 = 'https://www.moneycontrol.com/mutual-funds/sundaram-mid-cap-fund-direct-plan/portfolio-overview/MSN568';url31 =  read_html (url31);url_tbl31 = url31 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl31 = data.table(url_tbl31);url_tbl31 = url_tbl31[, `:=` (url ='Sundaram', rown =31),];print(31);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" t="s">
+        <v>933</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="6"/>
+        <v>url32 = 'https://www.moneycontrol.com/mutual-funds/sbi-magnum-midcap-fund-direct-plan/portfolio-overview/MSB505';</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>url32 =  read_html (url32);</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl32 = url32 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl32 = data.table(url_tbl32);</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl32 = url_tbl32[, `:=` (url ='SBI', rown =32),];</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="0"/>
+        <v>print(32);</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="1"/>
+        <v>url32 = 'https://www.moneycontrol.com/mutual-funds/sbi-magnum-midcap-fund-direct-plan/portfolio-overview/MSB505';url32 =  read_html (url32);url_tbl32 = url32 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl32 = data.table(url_tbl32);url_tbl32 = url_tbl32[, `:=` (url ='SBI', rown =32),];print(32);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" t="s">
+        <v>948</v>
+      </c>
+      <c r="E34" t="s">
+        <v>999</v>
+      </c>
+      <c r="F34">
+        <v>33</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="6"/>
+        <v>url33 = 'https://www.moneycontrol.com/mutual-funds/uti-mid-cap-fund-direct-plan/portfolio-overview/MUT637';</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="2"/>
+        <v>url33 =  read_html (url33);</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl33 = url33 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl33 = data.table(url_tbl33);</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl33 = url_tbl33[, `:=` (url ='UTI', rown =33),];</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="0"/>
+        <v>print(33);</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="1"/>
+        <v>url33 = 'https://www.moneycontrol.com/mutual-funds/uti-mid-cap-fund-direct-plan/portfolio-overview/MUT637';url33 =  read_html (url33);url_tbl33 = url33 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl33 = data.table(url_tbl33);url_tbl33 = url_tbl33[, `:=` (url ='UTI', rown =33),];print(33);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>303</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="6"/>
+        <v>url34 = 'https://www.moneycontrol.com/mutual-funds/mirae-asset-midcap-fund-direct-plan/portfolio-overview/MMA173';</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="2"/>
+        <v>url34 =  read_html (url34);</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl34 = url34 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl34 = data.table(url_tbl34);</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl34 = url_tbl34[, `:=` (url ='Mirae', rown =34),];</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="0"/>
+        <v>print(34);</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="1"/>
+        <v>url34 = 'https://www.moneycontrol.com/mutual-funds/mirae-asset-midcap-fund-direct-plan/portfolio-overview/MMA173';url34 =  read_html (url34);url_tbl34 = url34 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl34 = data.table(url_tbl34);url_tbl34 = url_tbl34[, `:=` (url ='Mirae', rown =34),];print(34);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" t="s">
+        <v>943</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="6"/>
+        <v>url35 = 'https://www.moneycontrol.com/mutual-funds/aditya-birla-sun-life-midcap-fund-direct-plan/portfolio-overview/MBS829';</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="2"/>
+        <v>url35 =  read_html (url35);</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl35 = url35 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl35 = data.table(url_tbl35);</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl35 = url_tbl35[, `:=` (url ='Aditya Birla', rown =35),];</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="0"/>
+        <v>print(35);</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="1"/>
+        <v>url35 = 'https://www.moneycontrol.com/mutual-funds/aditya-birla-sun-life-midcap-fund-direct-plan/portfolio-overview/MBS829';url35 =  read_html (url35);url_tbl35 = url35 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl35 = data.table(url_tbl35);url_tbl35 = url_tbl35[, `:=` (url ='Aditya Birla', rown =35),];print(35);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" t="s">
+        <v>945</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="6"/>
+        <v>url36 = 'https://www.moneycontrol.com/mutual-funds/icici-prudential-midcap-fund-direct-plan/portfolio-overview/MPI1150';</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="2"/>
+        <v>url36 =  read_html (url36);</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl36 = url36 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl36 = data.table(url_tbl36);</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl36 = url_tbl36[, `:=` (url ='ICICI', rown =36),];</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="0"/>
+        <v>print(36);</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="1"/>
+        <v>url36 = 'https://www.moneycontrol.com/mutual-funds/icici-prudential-midcap-fund-direct-plan/portfolio-overview/MPI1150';url36 =  read_html (url36);url_tbl36 = url36 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl36 = data.table(url_tbl36);url_tbl36 = url_tbl36[, `:=` (url ='ICICI', rown =36),];print(36);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>306</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F38">
+        <v>37</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="6"/>
+        <v>url37 = 'https://www.moneycontrol.com/mutual-funds/motilal-oswal-midcap-30-fund-direct-plan/portfolio-overview/MMO027';</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="2"/>
+        <v>url37 =  read_html (url37);</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl37 = url37 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl37 = data.table(url_tbl37);</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl37 = url_tbl37[, `:=` (url ='Motilal Oswal', rown =37),];</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="0"/>
+        <v>print(37);</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="1"/>
+        <v>url37 = 'https://www.moneycontrol.com/mutual-funds/motilal-oswal-midcap-30-fund-direct-plan/portfolio-overview/MMO027';url37 =  read_html (url37);url_tbl37 = url37 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl37 = data.table(url_tbl37);url_tbl37 = url_tbl37[, `:=` (url ='Motilal Oswal', rown =37),];print(37);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="6"/>
+        <v>url38 = 'https://www.moneycontrol.com/mutual-funds/pgim-india-midcap-opportunities-fund-direct-plan/portfolio-overview/MPA139';</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="2"/>
+        <v>url38 =  read_html (url38);</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl38 = url38 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl38 = data.table(url_tbl38);</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl38 = url_tbl38[, `:=` (url ='PGIM', rown =38),];</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="0"/>
+        <v>print(38);</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="1"/>
+        <v>url38 = 'https://www.moneycontrol.com/mutual-funds/pgim-india-midcap-opportunities-fund-direct-plan/portfolio-overview/MPA139';url38 =  read_html (url38);url_tbl38 = url38 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl38 = data.table(url_tbl38);url_tbl38 = url_tbl38[, `:=` (url ='PGIM', rown =38),];print(38);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>308</v>
+      </c>
+      <c r="D40" t="s">
+        <v>952</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F40">
+        <v>39</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="6"/>
+        <v>url39 = 'https://www.moneycontrol.com/mutual-funds/invesco-india-midcap-fund-direct-plan/portfolio-overview/MLI556';</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="2"/>
+        <v>url39 =  read_html (url39);</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl39 = url39 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl39 = data.table(url_tbl39);</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl39 = url_tbl39[, `:=` (url ='Invesco', rown =39),];</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="0"/>
+        <v>print(39);</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="1"/>
+        <v>url39 = 'https://www.moneycontrol.com/mutual-funds/invesco-india-midcap-fund-direct-plan/portfolio-overview/MLI556';url39 =  read_html (url39);url_tbl39 = url39 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl39 = data.table(url_tbl39);url_tbl39 = url_tbl39[, `:=` (url ='Invesco', rown =39),];print(39);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" t="s">
+        <v>953</v>
+      </c>
+      <c r="E41" t="s">
+        <v>999</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="6"/>
+        <v>url40 = 'https://www.moneycontrol.com/mutual-funds/edelweiss-mid-cap-fund-direct-plan/portfolio-overview/MJP117';</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="2"/>
+        <v>url40 =  read_html (url40);</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl40 = url40 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl40 = data.table(url_tbl40);</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl40 = url_tbl40[, `:=` (url ='Edelweiss', rown =40),];</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="0"/>
+        <v>print(40);</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="1"/>
+        <v>url40 = 'https://www.moneycontrol.com/mutual-funds/edelweiss-mid-cap-fund-direct-plan/portfolio-overview/MJP117';url40 =  read_html (url40);url_tbl40 = url40 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl40 = data.table(url_tbl40);url_tbl40 = url_tbl40[, `:=` (url ='Edelweiss', rown =40),];print(40);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>310</v>
+      </c>
+      <c r="D42" t="s">
+        <v>949</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F42">
+        <v>41</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="6"/>
+        <v>url41 = 'https://www.moneycontrol.com/mutual-funds/tata-mid-cap-growth-fund-direct-plan/portfolio-overview/MTA776';</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="2"/>
+        <v>url41 =  read_html (url41);</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl41 = url41 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl41 = data.table(url_tbl41);</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl41 = url_tbl41[, `:=` (url ='Tata', rown =41),];</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="0"/>
+        <v>print(41);</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="1"/>
+        <v>url41 = 'https://www.moneycontrol.com/mutual-funds/tata-mid-cap-growth-fund-direct-plan/portfolio-overview/MTA776';url41 =  read_html (url41);url_tbl41 = url41 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl41 = data.table(url_tbl41);url_tbl41 = url_tbl41[, `:=` (url ='Tata', rown =41),];print(41);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>311</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="6"/>
+        <v>url42 = 'https://www.moneycontrol.com/mutual-funds/bnp-paribas-mid-cap-fund-direct-plan/portfolio-overview/MAB726';</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="2"/>
+        <v>url42 =  read_html (url42);</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl42 = url42 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl42 = data.table(url_tbl42);</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl42 = url_tbl42[, `:=` (url ='BNP', rown =42),];</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="0"/>
+        <v>print(42);</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="1"/>
+        <v>url42 = 'https://www.moneycontrol.com/mutual-funds/bnp-paribas-mid-cap-fund-direct-plan/portfolio-overview/MAB726';url42 =  read_html (url42);url_tbl42 = url42 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl42 = data.table(url_tbl42);url_tbl42 = url_tbl42[, `:=` (url ='BNP', rown =42),];print(42);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="s">
+        <v>312</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F44">
+        <v>43</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="6"/>
+        <v>url43 = 'https://www.moneycontrol.com/mutual-funds/mahindra-manulife-mid-cap-unnati-yojana-direct-plan/portfolio-overview/MMH037';</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="2"/>
+        <v>url43 =  read_html (url43);</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl43 = url43 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl43 = data.table(url_tbl43);</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl43 = url_tbl43[, `:=` (url ='Mahindra Manulife', rown =43),];</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="0"/>
+        <v>print(43);</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="1"/>
+        <v>url43 = 'https://www.moneycontrol.com/mutual-funds/mahindra-manulife-mid-cap-unnati-yojana-direct-plan/portfolio-overview/MMH037';url43 =  read_html (url43);url_tbl43 = url43 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl43 = data.table(url_tbl43);url_tbl43 = url_tbl43[, `:=` (url ='Mahindra Manulife', rown =43),];print(43);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>313</v>
+      </c>
+      <c r="D45" t="s">
+        <v>956</v>
+      </c>
+      <c r="E45" t="s">
+        <v>999</v>
+      </c>
+      <c r="F45">
+        <v>44</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="6"/>
+        <v>url44 = 'https://www.moneycontrol.com/mutual-funds/principal-midcap-fund-direct-plan/portfolio-overview/MID398';</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="2"/>
+        <v>url44 =  read_html (url44);</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl44 = url44 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl44 = data.table(url_tbl44);</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl44 = url_tbl44[, `:=` (url ='Principal', rown =44),];</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="0"/>
+        <v>print(44);</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="1"/>
+        <v>url44 = 'https://www.moneycontrol.com/mutual-funds/principal-midcap-fund-direct-plan/portfolio-overview/MID398';url44 =  read_html (url44);url_tbl44 = url44 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl44 = data.table(url_tbl44);url_tbl44 = url_tbl44[, `:=` (url ='Principal', rown =44),];print(44);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" t="s">
+        <v>314</v>
+      </c>
+      <c r="D46" t="s">
+        <v>957</v>
+      </c>
+      <c r="E46" t="s">
+        <v>999</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="6"/>
+        <v>url45 = 'https://www.moneycontrol.com/mutual-funds/iti-mid-cap-fund-direct-plan/portfolio-overview/MIT055';</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="2"/>
+        <v>url45 =  read_html (url45);</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl45 = url45 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl45 = data.table(url_tbl45);</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl45 = url_tbl45[, `:=` (url ='ITI', rown =45),];</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="0"/>
+        <v>print(45);</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="1"/>
+        <v>url45 = 'https://www.moneycontrol.com/mutual-funds/iti-mid-cap-fund-direct-plan/portfolio-overview/MIT055';url45 =  read_html (url45);url_tbl45 = url45 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl45 = data.table(url_tbl45);url_tbl45 = url_tbl45[, `:=` (url ='ITI', rown =45),];print(45);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>315</v>
+      </c>
+      <c r="D47" t="s">
+        <v>955</v>
+      </c>
+      <c r="E47" t="s">
+        <v>999</v>
+      </c>
+      <c r="F47">
+        <v>46</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="6"/>
+        <v>url46 = 'https://www.moneycontrol.com/mutual-funds/union-midcap-fund-direct-plan/portfolio-overview/MUK152';</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="2"/>
+        <v>url46 =  read_html (url46);</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl46 = url46 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl46 = data.table(url_tbl46);</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl46 = url_tbl46[, `:=` (url ='Union', rown =46),];</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="0"/>
+        <v>print(46);</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="1"/>
+        <v>url46 = 'https://www.moneycontrol.com/mutual-funds/union-midcap-fund-direct-plan/portfolio-overview/MUK152';url46 =  read_html (url46);url_tbl46 = url46 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl46 = data.table(url_tbl46);url_tbl46 = url_tbl46[, `:=` (url ='Union', rown =46),];print(46);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D48" t="s">
+        <v>959</v>
+      </c>
+      <c r="E48" t="s">
+        <v>999</v>
+      </c>
+      <c r="F48">
+        <v>47</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="6"/>
+        <v>url47 = 'https://www.moneycontrol.com/mutual-funds/idbi-midcap-fund-direct-plan/portfolio-overview/MIB230';</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="2"/>
+        <v>url47 =  read_html (url47);</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl47 = url47 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl47 = data.table(url_tbl47);</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl47 = url_tbl47[, `:=` (url ='IDBI', rown =47),];</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="0"/>
+        <v>print(47);</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="1"/>
+        <v>url47 = 'https://www.moneycontrol.com/mutual-funds/idbi-midcap-fund-direct-plan/portfolio-overview/MIB230';url47 =  read_html (url47);url_tbl47 = url47 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl47 = data.table(url_tbl47);url_tbl47 = url_tbl47[, `:=` (url ='IDBI', rown =47),];print(47);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
+        <v>317</v>
+      </c>
+      <c r="D49" t="s">
+        <v>954</v>
+      </c>
+      <c r="E49" t="s">
+        <v>999</v>
+      </c>
+      <c r="F49">
+        <v>48</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="6"/>
+        <v>url48 = 'https://www.moneycontrol.com/mutual-funds/quant-mid-cap-fund-direct-plan/portfolio-overview/MES043';</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="2"/>
+        <v>url48 =  read_html (url48);</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl48 = url48 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl48 = data.table(url_tbl48);</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl48 = url_tbl48[, `:=` (url ='Quant', rown =48),];</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="0"/>
+        <v>print(48);</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="1"/>
+        <v>url48 = 'https://www.moneycontrol.com/mutual-funds/quant-mid-cap-fund-direct-plan/portfolio-overview/MES043';url48 =  read_html (url48);url_tbl48 = url48 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl48 = data.table(url_tbl48);url_tbl48 = url_tbl48[, `:=` (url ='Quant', rown =48),];print(48);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>318</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F50">
+        <v>49</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="6"/>
+        <v>url49 = 'https://www.moneycontrol.com/mutual-funds/taurus-discovery-midcap-fund-direct-plan/portfolio-overview/MCM132';</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="2"/>
+        <v>url49 =  read_html (url49);</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl49 = url49 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl49 = data.table(url_tbl49);</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl49 = url_tbl49[, `:=` (url ='Taurus', rown =49),];</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="0"/>
+        <v>print(49);</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="1"/>
+        <v>url49 = 'https://www.moneycontrol.com/mutual-funds/taurus-discovery-midcap-fund-direct-plan/portfolio-overview/MCM132';url49 =  read_html (url49);url_tbl49 = url49 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl49 = data.table(url_tbl49);url_tbl49 = url_tbl49[, `:=` (url ='Taurus', rown =49),];print(49);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>319</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="6"/>
+        <v>url50 = 'https://www.moneycontrol.com/mutual-funds/baroda-pioneer-mid-cap-fund-direct-plan-b/portfolio-overview/MBO097';</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="2"/>
+        <v>url50 =  read_html (url50);</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl50 = url50 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl50 = data.table(url_tbl50);</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="5"/>
+        <v>url_tbl50 = url_tbl50[, `:=` (url ='Baroda', rown =50),];</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="0"/>
+        <v>print(50);</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="1"/>
+        <v>url50 = 'https://www.moneycontrol.com/mutual-funds/baroda-pioneer-mid-cap-fund-direct-plan-b/portfolio-overview/MBO097';url50 =  read_html (url50);url_tbl50 = url50 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl50 = data.table(url_tbl50);url_tbl50 = url_tbl50[, `:=` (url ='Baroda', rown =50),];print(50);</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F21" r:id="rId20"/>
-    <hyperlink ref="F22" r:id="rId21"/>
-    <hyperlink ref="F23" r:id="rId22"/>
-    <hyperlink ref="F24" r:id="rId23"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="G11" r:id="rId10"/>
+    <hyperlink ref="G12" r:id="rId11"/>
+    <hyperlink ref="G13" r:id="rId12"/>
+    <hyperlink ref="G14" r:id="rId13"/>
+    <hyperlink ref="G15" r:id="rId14"/>
+    <hyperlink ref="G16" r:id="rId15"/>
+    <hyperlink ref="G17" r:id="rId16"/>
+    <hyperlink ref="G18" r:id="rId17"/>
+    <hyperlink ref="G19" r:id="rId18"/>
+    <hyperlink ref="G20" r:id="rId19"/>
+    <hyperlink ref="G21" r:id="rId20"/>
+    <hyperlink ref="G22" r:id="rId21"/>
+    <hyperlink ref="G23" r:id="rId22"/>
+    <hyperlink ref="G24" r:id="rId23"/>
+    <hyperlink ref="G25" r:id="rId24"/>
+    <hyperlink ref="G27" r:id="rId25"/>
+    <hyperlink ref="G28" r:id="rId26"/>
+    <hyperlink ref="G29" r:id="rId27"/>
+    <hyperlink ref="G30" r:id="rId28"/>
+    <hyperlink ref="G31" r:id="rId29"/>
+    <hyperlink ref="G32" r:id="rId30"/>
+    <hyperlink ref="G33" r:id="rId31"/>
+    <hyperlink ref="G34" r:id="rId32"/>
+    <hyperlink ref="G35" r:id="rId33"/>
+    <hyperlink ref="G36" r:id="rId34"/>
+    <hyperlink ref="G37" r:id="rId35"/>
+    <hyperlink ref="G38" r:id="rId36"/>
+    <hyperlink ref="G39" r:id="rId37"/>
+    <hyperlink ref="G40" r:id="rId38"/>
+    <hyperlink ref="G41" r:id="rId39"/>
+    <hyperlink ref="G42" r:id="rId40"/>
+    <hyperlink ref="G43" r:id="rId41"/>
+    <hyperlink ref="G44" r:id="rId42"/>
+    <hyperlink ref="G45" r:id="rId43"/>
+    <hyperlink ref="G46" r:id="rId44"/>
+    <hyperlink ref="G47" r:id="rId45"/>
+    <hyperlink ref="G48" r:id="rId46"/>
+    <hyperlink ref="G49" r:id="rId47"/>
+    <hyperlink ref="G50" r:id="rId48"/>
+    <hyperlink ref="G51" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0502-Mutual-Fund-Options.xlsx
+++ b/0502-Mutual-Fund-Options.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Combinations" sheetId="1" r:id="rId1"/>
     <sheet name="MultiYear-R" sheetId="2" r:id="rId2"/>
     <sheet name="BigMoney" sheetId="3" r:id="rId3"/>
+    <sheet name="CompanySector" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="1089">
   <si>
     <t>Expense</t>
   </si>
@@ -3178,6 +3179,135 @@
   </si>
   <si>
     <t>https://www.moneycontrol.com/mutual-funds/baroda-pioneer-mid-cap-fund-direct-plan-b/portfolio-overview/MBO097</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/automotive.html</t>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
+    <t>NSE</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/banking-finance.html</t>
+  </si>
+  <si>
+    <t>Banking/Finance</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/cement-construction.html</t>
+  </si>
+  <si>
+    <t>Cement/Construction</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/chemicals.html</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/conglomerates.html</t>
+  </si>
+  <si>
+    <t>Conglomerates</t>
+  </si>
+  <si>
+    <t>Cons Durable</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/consumer-durable.html</t>
+  </si>
+  <si>
+    <t>Cons Non-Durable</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/consumer-non-durable.html</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/engineering.html</t>
+  </si>
+  <si>
+    <t>Food &amp; Beverage</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/food-beverage.html</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/technology.html</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/manufacturing.html</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/media.html</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/metals-mining.html</t>
+  </si>
+  <si>
+    <t>Metal &amp; Mining</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/miscellaneous.html</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/oil-gas.html</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/pharmaceuticals.html</t>
+  </si>
+  <si>
+    <t>Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/retail-real-estate.html</t>
+  </si>
+  <si>
+    <t>Retail/Real Estate</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/services.html</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/telecom.html</t>
+  </si>
+  <si>
+    <t>Telecom</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/tobacco.html</t>
+  </si>
+  <si>
+    <t>Tobacco</t>
+  </si>
+  <si>
+    <t>https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/utilities.html</t>
+  </si>
+  <si>
+    <t>Utilities</t>
   </si>
 </sst>
 </file>
@@ -3230,6 +3360,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -26053,8 +26184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26131,23 +26262,23 @@
         <v>960</v>
       </c>
       <c r="H2" t="str">
-        <f>CONCATENATE(B2, " = '", G2, "';")</f>
+        <f t="shared" ref="H2:H27" si="0">CONCATENATE(B2, " = '", G2, "';")</f>
         <v>url1 = 'https://www.moneycontrol.com/mutual-funds/nippon-india-small-cap-fund-direct-plan/portfolio-overview/MRC935';</v>
       </c>
       <c r="I2" t="str">
-        <f>CONCATENATE(B2, " =  read_html (", B2, ");")</f>
+        <f t="shared" ref="I2:I24" si="1">CONCATENATE(B2, " =  read_html (", B2, ");")</f>
         <v>url1 =  read_html (url1);</v>
       </c>
       <c r="J2" t="str">
-        <f>CONCATENATE(C2, " = ", B2, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" ref="J2:J24" si="2">CONCATENATE(C2, " = ", B2, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl1 = url1 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K2" t="str">
-        <f>CONCATENATE(C2, " = data.table(", C2, ");" )</f>
+        <f t="shared" ref="K2:K24" si="3">CONCATENATE(C2, " = data.table(", C2, ");" )</f>
         <v>url_tbl1 = data.table(url_tbl1);</v>
       </c>
       <c r="L2" t="str">
-        <f>CONCATENATE(C2, " = ", C2, "[, `:=` (url ='",D2, "', rown =", F2, "),];" )</f>
+        <f t="shared" ref="L2:L25" si="4">CONCATENATE(C2, " = ", C2, "[, `:=` (url ='",D2, "', rown =", F2, "),];" )</f>
         <v>url_tbl1 = url_tbl1[, `:=` (url ='Nippon', rown =1),];</v>
       </c>
       <c r="M2" t="str">
@@ -26182,31 +26313,31 @@
         <v>961</v>
       </c>
       <c r="H3" t="str">
-        <f>CONCATENATE(B3, " = '", G3, "';")</f>
+        <f t="shared" si="0"/>
         <v>url2 = 'https://www.moneycontrol.com/mutual-funds/hdfc-small-cap-fund-direct-plan/portfolio-overview/MMS025';</v>
       </c>
       <c r="I3" t="str">
-        <f>CONCATENATE(B3, " =  read_html (", B3, ");")</f>
+        <f t="shared" si="1"/>
         <v>url2 =  read_html (url2);</v>
       </c>
       <c r="J3" t="str">
-        <f>CONCATENATE(C3, " = ", B3, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl2 = url2 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K3" t="str">
-        <f>CONCATENATE(C3, " = data.table(", C3, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl2 = data.table(url_tbl2);</v>
       </c>
       <c r="L3" t="str">
-        <f>CONCATENATE(C3, " = ", C3, "[, `:=` (url ='",D3, "', rown =", F3, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl2 = url_tbl2[, `:=` (url ='HDFC', rown =2),];</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M51" si="0">CONCATENATE("print(", F3, ");")</f>
+        <f t="shared" ref="M3:M51" si="5">CONCATENATE("print(", F3, ");")</f>
         <v>print(2);</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N51" si="1">CONCATENATE(H3,I3,J3, K3, L3, M3)</f>
+        <f t="shared" ref="N3:N51" si="6">CONCATENATE(H3,I3,J3, K3, L3, M3)</f>
         <v>url2 = 'https://www.moneycontrol.com/mutual-funds/hdfc-small-cap-fund-direct-plan/portfolio-overview/MMS025';url2 =  read_html (url2);url_tbl2 = url2 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl2 = data.table(url_tbl2);url_tbl2 = url_tbl2[, `:=` (url ='HDFC', rown =2),];print(2);</v>
       </c>
     </row>
@@ -26233,31 +26364,31 @@
         <v>962</v>
       </c>
       <c r="H4" t="str">
-        <f>CONCATENATE(B4, " = '", G4, "';")</f>
+        <f t="shared" si="0"/>
         <v>url3 = 'https://www.moneycontrol.com/mutual-funds/sbi-small-cap-fund-direct-plan/portfolio-overview/MSA031';</v>
       </c>
       <c r="I4" t="str">
-        <f>CONCATENATE(B4, " =  read_html (", B4, ");")</f>
+        <f t="shared" si="1"/>
         <v>url3 =  read_html (url3);</v>
       </c>
       <c r="J4" t="str">
-        <f>CONCATENATE(C4, " = ", B4, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl3 = url3 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K4" t="str">
-        <f>CONCATENATE(C4, " = data.table(", C4, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl3 = data.table(url_tbl3);</v>
       </c>
       <c r="L4" t="str">
-        <f>CONCATENATE(C4, " = ", C4, "[, `:=` (url ='",D4, "', rown =", F4, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl3 = url_tbl3[, `:=` (url ='SBI', rown =3),];</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(3);</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url3 = 'https://www.moneycontrol.com/mutual-funds/sbi-small-cap-fund-direct-plan/portfolio-overview/MSA031';url3 =  read_html (url3);url_tbl3 = url3 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl3 = data.table(url_tbl3);url_tbl3 = url_tbl3[, `:=` (url ='SBI', rown =3),];print(3);</v>
       </c>
     </row>
@@ -26284,31 +26415,31 @@
         <v>963</v>
       </c>
       <c r="H5" t="str">
-        <f>CONCATENATE(B5, " = '", G5, "';")</f>
+        <f t="shared" si="0"/>
         <v>url4 = 'https://www.moneycontrol.com/mutual-funds/dsp-small-cap-fund-direct-plan/portfolio-overview/MDS584';</v>
       </c>
       <c r="I5" t="str">
-        <f>CONCATENATE(B5, " =  read_html (", B5, ");")</f>
+        <f t="shared" si="1"/>
         <v>url4 =  read_html (url4);</v>
       </c>
       <c r="J5" t="str">
-        <f>CONCATENATE(C5, " = ", B5, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl4 = url4 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K5" t="str">
-        <f>CONCATENATE(C5, " = data.table(", C5, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl4 = data.table(url_tbl4);</v>
       </c>
       <c r="L5" t="str">
-        <f>CONCATENATE(C5, " = ", C5, "[, `:=` (url ='",D5, "', rown =", F5, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl4 = url_tbl4[, `:=` (url ='DSP', rown =4),];</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(4);</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url4 = 'https://www.moneycontrol.com/mutual-funds/dsp-small-cap-fund-direct-plan/portfolio-overview/MDS584';url4 =  read_html (url4);url_tbl4 = url4 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl4 = data.table(url_tbl4);url_tbl4 = url_tbl4[, `:=` (url ='DSP', rown =4),];print(4);</v>
       </c>
     </row>
@@ -26335,31 +26466,31 @@
         <v>964</v>
       </c>
       <c r="H6" t="str">
-        <f>CONCATENATE(B6, " = '", G6, "';")</f>
+        <f t="shared" si="0"/>
         <v>url5 = 'https://www.moneycontrol.com/mutual-funds/l-t-emerging-businesses-fund-direct-plan/portfolio-overview/MCC492';</v>
       </c>
       <c r="I6" t="str">
-        <f>CONCATENATE(B6, " =  read_html (", B6, ");")</f>
+        <f t="shared" si="1"/>
         <v>url5 =  read_html (url5);</v>
       </c>
       <c r="J6" t="str">
-        <f>CONCATENATE(C6, " = ", B6, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl5 = url5 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K6" t="str">
-        <f>CONCATENATE(C6, " = data.table(", C6, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl5 = data.table(url_tbl5);</v>
       </c>
       <c r="L6" t="str">
-        <f>CONCATENATE(C6, " = ", C6, "[, `:=` (url ='",D6, "', rown =", F6, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl5 = url_tbl5[, `:=` (url ='LT', rown =5),];</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(5);</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url5 = 'https://www.moneycontrol.com/mutual-funds/l-t-emerging-businesses-fund-direct-plan/portfolio-overview/MCC492';url5 =  read_html (url5);url_tbl5 = url5 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl5 = data.table(url_tbl5);url_tbl5 = url_tbl5[, `:=` (url ='LT', rown =5),];print(5);</v>
       </c>
     </row>
@@ -26386,31 +26517,31 @@
         <v>965</v>
       </c>
       <c r="H7" t="str">
-        <f>CONCATENATE(B7, " = '", G7, "';")</f>
+        <f t="shared" si="0"/>
         <v>url6 = 'https://www.moneycontrol.com/mutual-funds/franklin-india-smaller-companies-fund-direct-plan/portfolio-overview/MTE313';</v>
       </c>
       <c r="I7" t="str">
-        <f>CONCATENATE(B7, " =  read_html (", B7, ");")</f>
+        <f t="shared" si="1"/>
         <v>url6 =  read_html (url6);</v>
       </c>
       <c r="J7" t="str">
-        <f>CONCATENATE(C7, " = ", B7, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl6 = url6 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K7" t="str">
-        <f>CONCATENATE(C7, " = data.table(", C7, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl6 = data.table(url_tbl6);</v>
       </c>
       <c r="L7" t="str">
-        <f>CONCATENATE(C7, " = ", C7, "[, `:=` (url ='",D7, "', rown =", F7, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl6 = url_tbl6[, `:=` (url ='Fraklin', rown =6),];</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(6);</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url6 = 'https://www.moneycontrol.com/mutual-funds/franklin-india-smaller-companies-fund-direct-plan/portfolio-overview/MTE313';url6 =  read_html (url6);url_tbl6 = url6 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl6 = data.table(url_tbl6);url_tbl6 = url_tbl6[, `:=` (url ='Fraklin', rown =6),];print(6);</v>
       </c>
     </row>
@@ -26437,31 +26568,31 @@
         <v>966</v>
       </c>
       <c r="H8" t="str">
-        <f>CONCATENATE(B8, " = '", G8, "';")</f>
+        <f t="shared" si="0"/>
         <v>url7 = 'https://www.moneycontrol.com/mutual-funds/axis-small-cap-fund-direct-plan/portfolio-overview/MAA316';</v>
       </c>
       <c r="I8" t="str">
-        <f>CONCATENATE(B8, " =  read_html (", B8, ");")</f>
+        <f t="shared" si="1"/>
         <v>url7 =  read_html (url7);</v>
       </c>
       <c r="J8" t="str">
-        <f>CONCATENATE(C8, " = ", B8, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl7 = url7 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K8" t="str">
-        <f>CONCATENATE(C8, " = data.table(", C8, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl7 = data.table(url_tbl7);</v>
       </c>
       <c r="L8" t="str">
-        <f>CONCATENATE(C8, " = ", C8, "[, `:=` (url ='",D8, "', rown =", F8, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl7 = url_tbl7[, `:=` (url ='Axis', rown =7),];</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(7);</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url7 = 'https://www.moneycontrol.com/mutual-funds/axis-small-cap-fund-direct-plan/portfolio-overview/MAA316';url7 =  read_html (url7);url_tbl7 = url7 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl7 = data.table(url_tbl7);url_tbl7 = url_tbl7[, `:=` (url ='Axis', rown =7),];print(7);</v>
       </c>
     </row>
@@ -26488,31 +26619,31 @@
         <v>967</v>
       </c>
       <c r="H9" t="str">
-        <f>CONCATENATE(B9, " = '", G9, "';")</f>
+        <f t="shared" si="0"/>
         <v>url8 = 'https://www.moneycontrol.com/mutual-funds/kotak-small-cap-fund-direct-plan/portfolio-overview/MKM516';</v>
       </c>
       <c r="I9" t="str">
-        <f>CONCATENATE(B9, " =  read_html (", B9, ");")</f>
+        <f t="shared" si="1"/>
         <v>url8 =  read_html (url8);</v>
       </c>
       <c r="J9" t="str">
-        <f>CONCATENATE(C9, " = ", B9, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl8 = url8 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K9" t="str">
-        <f>CONCATENATE(C9, " = data.table(", C9, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl8 = data.table(url_tbl8);</v>
       </c>
       <c r="L9" t="str">
-        <f>CONCATENATE(C9, " = ", C9, "[, `:=` (url ='",D9, "', rown =", F9, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl8 = url_tbl8[, `:=` (url ='Kotak', rown =8),];</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(8);</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url8 = 'https://www.moneycontrol.com/mutual-funds/kotak-small-cap-fund-direct-plan/portfolio-overview/MKM516';url8 =  read_html (url8);url_tbl8 = url8 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl8 = data.table(url_tbl8);url_tbl8 = url_tbl8[, `:=` (url ='Kotak', rown =8),];print(8);</v>
       </c>
     </row>
@@ -26539,31 +26670,31 @@
         <v>968</v>
       </c>
       <c r="H10" t="str">
-        <f>CONCATENATE(B10, " = '", G10, "';")</f>
+        <f t="shared" si="0"/>
         <v>url9 = 'https://www.moneycontrol.com/mutual-funds/aditya-birla-sun-life-small-cap-fund-direct-plan/portfolio-overview/MBS833';</v>
       </c>
       <c r="I10" t="str">
-        <f>CONCATENATE(B10, " =  read_html (", B10, ");")</f>
+        <f t="shared" si="1"/>
         <v>url9 =  read_html (url9);</v>
       </c>
       <c r="J10" t="str">
-        <f>CONCATENATE(C10, " = ", B10, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl9 = url9 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K10" t="str">
-        <f>CONCATENATE(C10, " = data.table(", C10, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl9 = data.table(url_tbl9);</v>
       </c>
       <c r="L10" t="str">
-        <f>CONCATENATE(C10, " = ", C10, "[, `:=` (url ='",D10, "', rown =", F10, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl9 = url_tbl9[, `:=` (url ='Aditya Birla', rown =9),];</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(9);</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url9 = 'https://www.moneycontrol.com/mutual-funds/aditya-birla-sun-life-small-cap-fund-direct-plan/portfolio-overview/MBS833';url9 =  read_html (url9);url_tbl9 = url9 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl9 = data.table(url_tbl9);url_tbl9 = url_tbl9[, `:=` (url ='Aditya Birla', rown =9),];print(9);</v>
       </c>
     </row>
@@ -26590,31 +26721,31 @@
         <v>969</v>
       </c>
       <c r="H11" t="str">
-        <f>CONCATENATE(B11, " = '", G11, "';")</f>
+        <f t="shared" si="0"/>
         <v>url10 = 'https://www.moneycontrol.com/mutual-funds/icici-prudential-smallcap-fund-direct-plan/portfolio-overview/MPI1146';</v>
       </c>
       <c r="I11" t="str">
-        <f>CONCATENATE(B11, " =  read_html (", B11, ");")</f>
+        <f t="shared" si="1"/>
         <v>url10 =  read_html (url10);</v>
       </c>
       <c r="J11" t="str">
-        <f>CONCATENATE(C11, " = ", B11, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl10 = url10 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K11" t="str">
-        <f>CONCATENATE(C11, " = data.table(", C11, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl10 = data.table(url_tbl10);</v>
       </c>
       <c r="L11" t="str">
-        <f>CONCATENATE(C11, " = ", C11, "[, `:=` (url ='",D11, "', rown =", F11, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl10 = url_tbl10[, `:=` (url ='ICICI', rown =10),];</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(10);</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url10 = 'https://www.moneycontrol.com/mutual-funds/icici-prudential-smallcap-fund-direct-plan/portfolio-overview/MPI1146';url10 =  read_html (url10);url_tbl10 = url10 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl10 = data.table(url_tbl10);url_tbl10 = url_tbl10[, `:=` (url ='ICICI', rown =10),];print(10);</v>
       </c>
     </row>
@@ -26641,31 +26772,31 @@
         <v>970</v>
       </c>
       <c r="H12" t="str">
-        <f>CONCATENATE(B12, " = '", G12, "';")</f>
+        <f t="shared" si="0"/>
         <v>url11 = 'https://www.moneycontrol.com/mutual-funds/sundaram-small-cap-fund-direct-plan/portfolio-overview/MSN572';</v>
       </c>
       <c r="I12" t="str">
-        <f>CONCATENATE(B12, " =  read_html (", B12, ");")</f>
+        <f t="shared" si="1"/>
         <v>url11 =  read_html (url11);</v>
       </c>
       <c r="J12" t="str">
-        <f>CONCATENATE(C12, " = ", B12, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl11 = url11 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K12" t="str">
-        <f>CONCATENATE(C12, " = data.table(", C12, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl11 = data.table(url_tbl11);</v>
       </c>
       <c r="L12" t="str">
-        <f>CONCATENATE(C12, " = ", C12, "[, `:=` (url ='",D12, "', rown =", F12, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl11 = url_tbl11[, `:=` (url ='Sundaram', rown =11),];</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(11);</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url11 = 'https://www.moneycontrol.com/mutual-funds/sundaram-small-cap-fund-direct-plan/portfolio-overview/MSN572';url11 =  read_html (url11);url_tbl11 = url11 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl11 = data.table(url_tbl11);url_tbl11 = url_tbl11[, `:=` (url ='Sundaram', rown =11),];print(11);</v>
       </c>
     </row>
@@ -26692,31 +26823,31 @@
         <v>971</v>
       </c>
       <c r="H13" t="str">
-        <f>CONCATENATE(B13, " = '", G13, "';")</f>
+        <f t="shared" si="0"/>
         <v>url12 = 'https://www.moneycontrol.com/mutual-funds/uti-small-cap-fund-direct-plan-/portfolio-overview/MUT3611';</v>
       </c>
       <c r="I13" t="str">
-        <f>CONCATENATE(B13, " =  read_html (", B13, ");")</f>
+        <f t="shared" si="1"/>
         <v>url12 =  read_html (url12);</v>
       </c>
       <c r="J13" t="str">
-        <f>CONCATENATE(C13, " = ", B13, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl12 = url12 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K13" t="str">
-        <f>CONCATENATE(C13, " = data.table(", C13, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl12 = data.table(url_tbl12);</v>
       </c>
       <c r="L13" t="str">
-        <f>CONCATENATE(C13, " = ", C13, "[, `:=` (url ='",D13, "', rown =", F13, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl12 = url_tbl12[, `:=` (url ='UTI', rown =12),];</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(12);</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url12 = 'https://www.moneycontrol.com/mutual-funds/uti-small-cap-fund-direct-plan-/portfolio-overview/MUT3611';url12 =  read_html (url12);url_tbl12 = url12 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl12 = data.table(url_tbl12);url_tbl12 = url_tbl12[, `:=` (url ='UTI', rown =12),];print(12);</v>
       </c>
     </row>
@@ -26743,31 +26874,31 @@
         <v>972</v>
       </c>
       <c r="H14" t="str">
-        <f>CONCATENATE(B14, " = '", G14, "';")</f>
+        <f t="shared" si="0"/>
         <v>url13 = 'https://www.moneycontrol.com/mutual-funds/tata-small-cap-fund-direct-plan/portfolio-overview/MTA1305';</v>
       </c>
       <c r="I14" t="str">
-        <f>CONCATENATE(B14, " =  read_html (", B14, ");")</f>
+        <f t="shared" si="1"/>
         <v>url13 =  read_html (url13);</v>
       </c>
       <c r="J14" t="str">
-        <f>CONCATENATE(C14, " = ", B14, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl13 = url13 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K14" t="str">
-        <f>CONCATENATE(C14, " = data.table(", C14, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl13 = data.table(url_tbl13);</v>
       </c>
       <c r="L14" t="str">
-        <f>CONCATENATE(C14, " = ", C14, "[, `:=` (url ='",D14, "', rown =", F14, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl13 = url_tbl13[, `:=` (url ='Tata', rown =13),];</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(13);</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url13 = 'https://www.moneycontrol.com/mutual-funds/tata-small-cap-fund-direct-plan/portfolio-overview/MTA1305';url13 =  read_html (url13);url_tbl13 = url13 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl13 = data.table(url_tbl13);url_tbl13 = url_tbl13[, `:=` (url ='Tata', rown =13),];print(13);</v>
       </c>
     </row>
@@ -26794,31 +26925,31 @@
         <v>973</v>
       </c>
       <c r="H15" t="str">
-        <f>CONCATENATE(B15, " = '", G15, "';")</f>
+        <f t="shared" si="0"/>
         <v>url14 = 'https://www.moneycontrol.com/mutual-funds/canara-robeco-small-cap-fund-direct-plan/portfolio-overview/MCA312';</v>
       </c>
       <c r="I15" t="str">
-        <f>CONCATENATE(B15, " =  read_html (", B15, ");")</f>
+        <f t="shared" si="1"/>
         <v>url14 =  read_html (url14);</v>
       </c>
       <c r="J15" t="str">
-        <f>CONCATENATE(C15, " = ", B15, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl14 = url14 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K15" t="str">
-        <f>CONCATENATE(C15, " = data.table(", C15, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl14 = data.table(url_tbl14);</v>
       </c>
       <c r="L15" t="str">
-        <f>CONCATENATE(C15, " = ", C15, "[, `:=` (url ='",D15, "', rown =", F15, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl14 = url_tbl14[, `:=` (url ='Canara Robeco', rown =14),];</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(14);</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url14 = 'https://www.moneycontrol.com/mutual-funds/canara-robeco-small-cap-fund-direct-plan/portfolio-overview/MCA312';url14 =  read_html (url14);url_tbl14 = url14 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl14 = data.table(url_tbl14);url_tbl14 = url_tbl14[, `:=` (url ='Canara Robeco', rown =14),];print(14);</v>
       </c>
     </row>
@@ -26845,31 +26976,31 @@
         <v>974</v>
       </c>
       <c r="H16" t="str">
-        <f>CONCATENATE(B16, " = '", G16, "';")</f>
+        <f t="shared" si="0"/>
         <v>url15 = 'https://www.moneycontrol.com/mutual-funds/idfc-emerging-businesses-fund-direct-plan/portfolio-overview/MAG2104';</v>
       </c>
       <c r="I16" t="str">
-        <f>CONCATENATE(B16, " =  read_html (", B16, ");")</f>
+        <f t="shared" si="1"/>
         <v>url15 =  read_html (url15);</v>
       </c>
       <c r="J16" t="str">
-        <f>CONCATENATE(C16, " = ", B16, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl15 = url15 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K16" t="str">
-        <f>CONCATENATE(C16, " = data.table(", C16, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl15 = data.table(url_tbl15);</v>
       </c>
       <c r="L16" t="str">
-        <f>CONCATENATE(C16, " = ", C16, "[, `:=` (url ='",D16, "', rown =", F16, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl15 = url_tbl15[, `:=` (url ='IDFC', rown =15),];</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(15);</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url15 = 'https://www.moneycontrol.com/mutual-funds/idfc-emerging-businesses-fund-direct-plan/portfolio-overview/MAG2104';url15 =  read_html (url15);url_tbl15 = url15 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl15 = data.table(url_tbl15);url_tbl15 = url_tbl15[, `:=` (url ='IDFC', rown =15),];print(15);</v>
       </c>
     </row>
@@ -26896,31 +27027,31 @@
         <v>975</v>
       </c>
       <c r="H17" t="str">
-        <f>CONCATENATE(B17, " = '", G17, "';")</f>
+        <f t="shared" si="0"/>
         <v>url16 = 'https://www.moneycontrol.com/mutual-funds/invesco-india-smallcap-fund-direct-plan/portfolio-overview/MLI1094';</v>
       </c>
       <c r="I17" t="str">
-        <f>CONCATENATE(B17, " =  read_html (", B17, ");")</f>
+        <f t="shared" si="1"/>
         <v>url16 =  read_html (url16);</v>
       </c>
       <c r="J17" t="str">
-        <f>CONCATENATE(C17, " = ", B17, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl16 = url16 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K17" t="str">
-        <f>CONCATENATE(C17, " = data.table(", C17, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl16 = data.table(url_tbl16);</v>
       </c>
       <c r="L17" t="str">
-        <f>CONCATENATE(C17, " = ", C17, "[, `:=` (url ='",D17, "', rown =", F17, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl16 = url_tbl16[, `:=` (url ='Invesco', rown =16),];</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(16);</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url16 = 'https://www.moneycontrol.com/mutual-funds/invesco-india-smallcap-fund-direct-plan/portfolio-overview/MLI1094';url16 =  read_html (url16);url_tbl16 = url16 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl16 = data.table(url_tbl16);url_tbl16 = url_tbl16[, `:=` (url ='Invesco', rown =16),];print(16);</v>
       </c>
     </row>
@@ -26947,31 +27078,31 @@
         <v>976</v>
       </c>
       <c r="H18" t="str">
-        <f>CONCATENATE(B18, " = '", G18, "';")</f>
+        <f t="shared" si="0"/>
         <v>url17 = 'https://www.moneycontrol.com/mutual-funds/edelweiss-small-cap-fund-direct-plan/portfolio-overview/MJP351';</v>
       </c>
       <c r="I18" t="str">
-        <f>CONCATENATE(B18, " =  read_html (", B18, ");")</f>
+        <f t="shared" si="1"/>
         <v>url17 =  read_html (url17);</v>
       </c>
       <c r="J18" t="str">
-        <f>CONCATENATE(C18, " = ", B18, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl17 = url17 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K18" t="str">
-        <f>CONCATENATE(C18, " = data.table(", C18, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl17 = data.table(url_tbl17);</v>
       </c>
       <c r="L18" t="str">
-        <f>CONCATENATE(C18, " = ", C18, "[, `:=` (url ='",D18, "', rown =", F18, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl17 = url_tbl17[, `:=` (url ='Edelweiss', rown =17),];</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(17);</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url17 = 'https://www.moneycontrol.com/mutual-funds/edelweiss-small-cap-fund-direct-plan/portfolio-overview/MJP351';url17 =  read_html (url17);url_tbl17 = url17 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl17 = data.table(url_tbl17);url_tbl17 = url_tbl17[, `:=` (url ='Edelweiss', rown =17),];print(17);</v>
       </c>
     </row>
@@ -26998,31 +27129,31 @@
         <v>977</v>
       </c>
       <c r="H19" t="str">
-        <f>CONCATENATE(B19, " = '", G19, "';")</f>
+        <f t="shared" si="0"/>
         <v>url18 = 'https://www.moneycontrol.com/mutual-funds/quant-small-cap-fund-direct-plan/portfolio-overview/MES056';</v>
       </c>
       <c r="I19" t="str">
-        <f>CONCATENATE(B19, " =  read_html (", B19, ");")</f>
+        <f t="shared" si="1"/>
         <v>url18 =  read_html (url18);</v>
       </c>
       <c r="J19" t="str">
-        <f>CONCATENATE(C19, " = ", B19, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl18 = url18 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K19" t="str">
-        <f>CONCATENATE(C19, " = data.table(", C19, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl18 = data.table(url_tbl18);</v>
       </c>
       <c r="L19" t="str">
-        <f>CONCATENATE(C19, " = ", C19, "[, `:=` (url ='",D19, "', rown =", F19, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl18 = url_tbl18[, `:=` (url ='Quant', rown =18),];</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(18);</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url18 = 'https://www.moneycontrol.com/mutual-funds/quant-small-cap-fund-direct-plan/portfolio-overview/MES056';url18 =  read_html (url18);url_tbl18 = url18 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl18 = data.table(url_tbl18);url_tbl18 = url_tbl18[, `:=` (url ='Quant', rown =18),];print(18);</v>
       </c>
     </row>
@@ -27049,31 +27180,31 @@
         <v>978</v>
       </c>
       <c r="H20" t="str">
-        <f>CONCATENATE(B20, " = '", G20, "';")</f>
+        <f t="shared" si="0"/>
         <v>url19 = 'https://www.moneycontrol.com/mutual-funds/union-small-cap-fund-direct-plan/portfolio-overview/MUK091';</v>
       </c>
       <c r="I20" t="str">
-        <f>CONCATENATE(B20, " =  read_html (", B20, ");")</f>
+        <f t="shared" si="1"/>
         <v>url19 =  read_html (url19);</v>
       </c>
       <c r="J20" t="str">
-        <f>CONCATENATE(C20, " = ", B20, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl19 = url19 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K20" t="str">
-        <f>CONCATENATE(C20, " = data.table(", C20, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl19 = data.table(url_tbl19);</v>
       </c>
       <c r="L20" t="str">
-        <f>CONCATENATE(C20, " = ", C20, "[, `:=` (url ='",D20, "', rown =", F20, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl19 = url_tbl19[, `:=` (url ='Union', rown =19),];</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(19);</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url19 = 'https://www.moneycontrol.com/mutual-funds/union-small-cap-fund-direct-plan/portfolio-overview/MUK091';url19 =  read_html (url19);url_tbl19 = url19 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl19 = data.table(url_tbl19);url_tbl19 = url_tbl19[, `:=` (url ='Union', rown =19),];print(19);</v>
       </c>
     </row>
@@ -27100,31 +27231,31 @@
         <v>979</v>
       </c>
       <c r="H21" t="str">
-        <f>CONCATENATE(B21, " = '", G21, "';")</f>
+        <f t="shared" si="0"/>
         <v>url20 = 'https://www.moneycontrol.com/mutual-funds/principal-small-cap-fund-direct-plan/portfolio-overview/MID394';</v>
       </c>
       <c r="I21" t="str">
-        <f>CONCATENATE(B21, " =  read_html (", B21, ");")</f>
+        <f t="shared" si="1"/>
         <v>url20 =  read_html (url20);</v>
       </c>
       <c r="J21" t="str">
-        <f>CONCATENATE(C21, " = ", B21, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl20 = url20 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K21" t="str">
-        <f>CONCATENATE(C21, " = data.table(", C21, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl20 = data.table(url_tbl20);</v>
       </c>
       <c r="L21" t="str">
-        <f>CONCATENATE(C21, " = ", C21, "[, `:=` (url ='",D21, "', rown =", F21, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl20 = url_tbl20[, `:=` (url ='Principal', rown =20),];</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(20);</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url20 = 'https://www.moneycontrol.com/mutual-funds/principal-small-cap-fund-direct-plan/portfolio-overview/MID394';url20 =  read_html (url20);url_tbl20 = url20 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl20 = data.table(url_tbl20);url_tbl20 = url_tbl20[, `:=` (url ='Principal', rown =20),];print(20);</v>
       </c>
     </row>
@@ -27151,31 +27282,31 @@
         <v>980</v>
       </c>
       <c r="H22" t="str">
-        <f>CONCATENATE(B22, " = '", G22, "';")</f>
+        <f t="shared" si="0"/>
         <v>url21 = 'https://www.moneycontrol.com/mutual-funds/iti-small-cap-fund-direct-plan/portfolio-overview/MIT043';</v>
       </c>
       <c r="I22" t="str">
-        <f>CONCATENATE(B22, " =  read_html (", B22, ");")</f>
+        <f t="shared" si="1"/>
         <v>url21 =  read_html (url21);</v>
       </c>
       <c r="J22" t="str">
-        <f>CONCATENATE(C22, " = ", B22, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl21 = url21 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K22" t="str">
-        <f>CONCATENATE(C22, " = data.table(", C22, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl21 = data.table(url_tbl21);</v>
       </c>
       <c r="L22" t="str">
-        <f>CONCATENATE(C22, " = ", C22, "[, `:=` (url ='",D22, "', rown =", F22, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl21 = url_tbl21[, `:=` (url ='ITI', rown =21),];</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(21);</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url21 = 'https://www.moneycontrol.com/mutual-funds/iti-small-cap-fund-direct-plan/portfolio-overview/MIT043';url21 =  read_html (url21);url_tbl21 = url21 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl21 = data.table(url_tbl21);url_tbl21 = url_tbl21[, `:=` (url ='ITI', rown =21),];print(21);</v>
       </c>
     </row>
@@ -27202,31 +27333,31 @@
         <v>981</v>
       </c>
       <c r="H23" t="str">
-        <f>CONCATENATE(B23, " = '", G23, "';")</f>
+        <f t="shared" si="0"/>
         <v>url22 = 'https://www.moneycontrol.com/mutual-funds/boi-axa-small-cap-fund-direct-plan/portfolio-overview/MBA203';</v>
       </c>
       <c r="I23" t="str">
-        <f>CONCATENATE(B23, " =  read_html (", B23, ");")</f>
+        <f t="shared" si="1"/>
         <v>url22 =  read_html (url22);</v>
       </c>
       <c r="J23" t="str">
-        <f>CONCATENATE(C23, " = ", B23, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl22 = url22 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K23" t="str">
-        <f>CONCATENATE(C23, " = data.table(", C23, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl22 = data.table(url_tbl22);</v>
       </c>
       <c r="L23" t="str">
-        <f>CONCATENATE(C23, " = ", C23, "[, `:=` (url ='",D23, "', rown =", F23, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl22 = url_tbl22[, `:=` (url ='BOI AXA', rown =22),];</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(22);</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url22 = 'https://www.moneycontrol.com/mutual-funds/boi-axa-small-cap-fund-direct-plan/portfolio-overview/MBA203';url22 =  read_html (url22);url_tbl22 = url22 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl22 = data.table(url_tbl22);url_tbl22 = url_tbl22[, `:=` (url ='BOI AXA', rown =22),];print(22);</v>
       </c>
     </row>
@@ -27253,31 +27384,31 @@
         <v>982</v>
       </c>
       <c r="H24" t="str">
-        <f>CONCATENATE(B24, " = '", G24, "';")</f>
+        <f t="shared" si="0"/>
         <v>url23 = 'https://www.moneycontrol.com/mutual-funds/idbi-small-cap-fund-direct-plan/portfolio-overview/MIB234';</v>
       </c>
       <c r="I24" t="str">
-        <f>CONCATENATE(B24, " =  read_html (", B24, ");")</f>
+        <f t="shared" si="1"/>
         <v>url23 =  read_html (url23);</v>
       </c>
       <c r="J24" t="str">
-        <f>CONCATENATE(C24, " = ", B24, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" si="2"/>
         <v>url_tbl23 = url23 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K24" t="str">
-        <f>CONCATENATE(C24, " = data.table(", C24, ");" )</f>
+        <f t="shared" si="3"/>
         <v>url_tbl23 = data.table(url_tbl23);</v>
       </c>
       <c r="L24" t="str">
-        <f>CONCATENATE(C24, " = ", C24, "[, `:=` (url ='",D24, "', rown =", F24, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl23 = url_tbl23[, `:=` (url ='IDBI', rown =23),];</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(23);</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url23 = 'https://www.moneycontrol.com/mutual-funds/idbi-small-cap-fund-direct-plan/portfolio-overview/MIB234';url23 =  read_html (url23);url_tbl23 = url23 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl23 = data.table(url_tbl23);url_tbl23 = url_tbl23[, `:=` (url ='IDBI', rown =23),];print(23);</v>
       </c>
     </row>
@@ -27304,31 +27435,31 @@
         <v>1020</v>
       </c>
       <c r="H25" t="str">
-        <f>CONCATENATE(B25, " = '", G25, "';")</f>
+        <f t="shared" si="0"/>
         <v>url24 = 'https://www.moneycontrol.com/mutual-funds/hdfc-mid-cap-opportunities-fund-direct-plan/portfolio-overview/MHD1161';</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" ref="I25:I51" si="2">CONCATENATE(B25, " =  read_html (", B25, ");")</f>
+        <f t="shared" ref="I25:I51" si="7">CONCATENATE(B25, " =  read_html (", B25, ");")</f>
         <v>url24 =  read_html (url24);</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" ref="J25:J51" si="3">CONCATENATE(C25, " = ", B25, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
+        <f t="shared" ref="J25:J51" si="8">CONCATENATE(C25, " = ", B25, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];")</f>
         <v>url_tbl24 = url24 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" ref="K25:K51" si="4">CONCATENATE(C25, " = data.table(", C25, ");" )</f>
+        <f t="shared" ref="K25:K51" si="9">CONCATENATE(C25, " = data.table(", C25, ");" )</f>
         <v>url_tbl24 = data.table(url_tbl24);</v>
       </c>
       <c r="L25" t="str">
-        <f>CONCATENATE(C25, " = ", C25, "[, `:=` (url ='",D25, "', rown =", F25, "),];" )</f>
+        <f t="shared" si="4"/>
         <v>url_tbl24 = url_tbl24[, `:=` (url ='HDFC', rown =24),];</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(24);</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url24 = 'https://www.moneycontrol.com/mutual-funds/hdfc-mid-cap-opportunities-fund-direct-plan/portfolio-overview/MHD1161';url24 =  read_html (url24);url_tbl24 = url24 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl24 = data.table(url_tbl24);url_tbl24 = url_tbl24[, `:=` (url ='HDFC', rown =24),];print(24);</v>
       </c>
     </row>
@@ -27352,31 +27483,31 @@
         <v>25</v>
       </c>
       <c r="H26" t="str">
-        <f>CONCATENATE(B26, " = '", G26, "';")</f>
+        <f t="shared" si="0"/>
         <v>url25 = '';</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>url25 =  read_html (url25);</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>url_tbl25 = url25 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>url_tbl25 = data.table(url_tbl25);</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" ref="L26:L51" si="5">CONCATENATE(C26, " = ", C26, "[, `:=` (url ='",D26, "', rown =", F26, "),];" )</f>
+        <f t="shared" ref="L26:L51" si="10">CONCATENATE(C26, " = ", C26, "[, `:=` (url ='",D26, "', rown =", F26, "),];" )</f>
         <v>url_tbl25 = url_tbl25[, `:=` (url ='Kotak', rown =25),];</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>print(25);</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url25 = '';url25 =  read_html (url25);url_tbl25 = url25 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl25 = data.table(url_tbl25);url_tbl25 = url_tbl25[, `:=` (url ='Kotak', rown =25),];print(25);</v>
       </c>
     </row>
@@ -27403,31 +27534,31 @@
         <v>1021</v>
       </c>
       <c r="H27" t="str">
-        <f>CONCATENATE(B27, " = '", G27, "';")</f>
+        <f t="shared" si="0"/>
         <v>url26 = 'https://www.moneycontrol.com/mutual-funds/dsp-mid-cap-fund-direct-plan/portfolio-overview/MDS574';</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>url26 =  read_html (url26);</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>url_tbl26 = url26 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>url_tbl26 = data.table(url_tbl26);</v>
       </c>
       <c r="L27" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl26 = url_tbl26[, `:=` (url ='DSP', rown =26),];</v>
+      </c>
+      <c r="M27" t="str">
         <f t="shared" si="5"/>
-        <v>url_tbl26 = url_tbl26[, `:=` (url ='DSP', rown =26),];</v>
-      </c>
-      <c r="M27" t="str">
-        <f t="shared" si="0"/>
         <v>print(26);</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url26 = 'https://www.moneycontrol.com/mutual-funds/dsp-mid-cap-fund-direct-plan/portfolio-overview/MDS574';url26 =  read_html (url26);url_tbl26 = url26 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl26 = data.table(url_tbl26);url_tbl26 = url_tbl26[, `:=` (url ='DSP', rown =26),];print(26);</v>
       </c>
     </row>
@@ -27454,31 +27585,31 @@
         <v>1022</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" ref="H28:H51" si="6">CONCATENATE(B28, " = '", G28, "';")</f>
+        <f t="shared" ref="H28:H51" si="11">CONCATENATE(B28, " = '", G28, "';")</f>
         <v>url27 = 'https://www.moneycontrol.com/mutual-funds/axis-mid-cap-fund-direct-plan/portfolio-overview/MAA194';</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>url27 =  read_html (url27);</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>url_tbl27 = url27 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>url_tbl27 = data.table(url_tbl27);</v>
       </c>
       <c r="L28" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl27 = url_tbl27[, `:=` (url ='Axis', rown =27),];</v>
+      </c>
+      <c r="M28" t="str">
         <f t="shared" si="5"/>
-        <v>url_tbl27 = url_tbl27[, `:=` (url ='Axis', rown =27),];</v>
-      </c>
-      <c r="M28" t="str">
-        <f t="shared" si="0"/>
         <v>print(27);</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>url27 = 'https://www.moneycontrol.com/mutual-funds/axis-mid-cap-fund-direct-plan/portfolio-overview/MAA194';url27 =  read_html (url27);url_tbl27 = url27 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl27 = data.table(url_tbl27);url_tbl27 = url_tbl27[, `:=` (url ='Axis', rown =27),];print(27);</v>
       </c>
     </row>
@@ -27505,31 +27636,31 @@
         <v>1023</v>
       </c>
       <c r="H29" t="str">
+        <f t="shared" si="11"/>
+        <v>url28 = 'https://www.moneycontrol.com/mutual-funds/nippon-india-growth-fund-direct-plan/portfolio-overview/MRC919';</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="7"/>
+        <v>url28 =  read_html (url28);</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl28 = url28 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl28 = data.table(url_tbl28);</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl28 = url_tbl28[, `:=` (url ='Nippon', rown =28),];</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="5"/>
+        <v>print(28);</v>
+      </c>
+      <c r="N29" t="str">
         <f t="shared" si="6"/>
-        <v>url28 = 'https://www.moneycontrol.com/mutual-funds/nippon-india-growth-fund-direct-plan/portfolio-overview/MRC919';</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="2"/>
-        <v>url28 =  read_html (url28);</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl28 = url28 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl28 = data.table(url_tbl28);</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl28 = url_tbl28[, `:=` (url ='Nippon', rown =28),];</v>
-      </c>
-      <c r="M29" t="str">
-        <f t="shared" si="0"/>
-        <v>print(28);</v>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" si="1"/>
         <v>url28 = 'https://www.moneycontrol.com/mutual-funds/nippon-india-growth-fund-direct-plan/portfolio-overview/MRC919';url28 =  read_html (url28);url_tbl28 = url28 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl28 = data.table(url_tbl28);url_tbl28 = url_tbl28[, `:=` (url ='Nippon', rown =28),];print(28);</v>
       </c>
     </row>
@@ -27556,31 +27687,31 @@
         <v>1024</v>
       </c>
       <c r="H30" t="str">
+        <f t="shared" si="11"/>
+        <v>url29 = 'https://www.moneycontrol.com/mutual-funds/franklin-india-prima-fund-direct-plan/portfolio-overview/MTE317';</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="7"/>
+        <v>url29 =  read_html (url29);</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl29 = url29 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl29 = data.table(url_tbl29);</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl29 = url_tbl29[, `:=` (url ='Fraklin', rown =29),];</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="5"/>
+        <v>print(29);</v>
+      </c>
+      <c r="N30" t="str">
         <f t="shared" si="6"/>
-        <v>url29 = 'https://www.moneycontrol.com/mutual-funds/franklin-india-prima-fund-direct-plan/portfolio-overview/MTE317';</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="2"/>
-        <v>url29 =  read_html (url29);</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl29 = url29 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl29 = data.table(url_tbl29);</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl29 = url_tbl29[, `:=` (url ='Fraklin', rown =29),];</v>
-      </c>
-      <c r="M30" t="str">
-        <f t="shared" si="0"/>
-        <v>print(29);</v>
-      </c>
-      <c r="N30" t="str">
-        <f t="shared" si="1"/>
         <v>url29 = 'https://www.moneycontrol.com/mutual-funds/franklin-india-prima-fund-direct-plan/portfolio-overview/MTE317';url29 =  read_html (url29);url_tbl29 = url29 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl29 = data.table(url_tbl29);url_tbl29 = url_tbl29[, `:=` (url ='Fraklin', rown =29),];print(29);</v>
       </c>
     </row>
@@ -27607,31 +27738,31 @@
         <v>1025</v>
       </c>
       <c r="H31" t="str">
+        <f t="shared" si="11"/>
+        <v>url30 = 'https://www.moneycontrol.com/mutual-funds/l-t-midcap-fund-direct-plan/portfolio-overview/MCC275';</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="7"/>
+        <v>url30 =  read_html (url30);</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl30 = url30 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl30 = data.table(url_tbl30);</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl30 = url_tbl30[, `:=` (url ='LT', rown =30),];</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="5"/>
+        <v>print(30);</v>
+      </c>
+      <c r="N31" t="str">
         <f t="shared" si="6"/>
-        <v>url30 = 'https://www.moneycontrol.com/mutual-funds/l-t-midcap-fund-direct-plan/portfolio-overview/MCC275';</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="2"/>
-        <v>url30 =  read_html (url30);</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl30 = url30 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl30 = data.table(url_tbl30);</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl30 = url_tbl30[, `:=` (url ='LT', rown =30),];</v>
-      </c>
-      <c r="M31" t="str">
-        <f t="shared" si="0"/>
-        <v>print(30);</v>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" si="1"/>
         <v>url30 = 'https://www.moneycontrol.com/mutual-funds/l-t-midcap-fund-direct-plan/portfolio-overview/MCC275';url30 =  read_html (url30);url_tbl30 = url30 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl30 = data.table(url_tbl30);url_tbl30 = url_tbl30[, `:=` (url ='LT', rown =30),];print(30);</v>
       </c>
     </row>
@@ -27658,31 +27789,31 @@
         <v>1026</v>
       </c>
       <c r="H32" t="str">
+        <f t="shared" si="11"/>
+        <v>url31 = 'https://www.moneycontrol.com/mutual-funds/sundaram-mid-cap-fund-direct-plan/portfolio-overview/MSN568';</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="7"/>
+        <v>url31 =  read_html (url31);</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl31 = url31 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl31 = data.table(url_tbl31);</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl31 = url_tbl31[, `:=` (url ='Sundaram', rown =31),];</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="5"/>
+        <v>print(31);</v>
+      </c>
+      <c r="N32" t="str">
         <f t="shared" si="6"/>
-        <v>url31 = 'https://www.moneycontrol.com/mutual-funds/sundaram-mid-cap-fund-direct-plan/portfolio-overview/MSN568';</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="2"/>
-        <v>url31 =  read_html (url31);</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl31 = url31 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl31 = data.table(url_tbl31);</v>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl31 = url_tbl31[, `:=` (url ='Sundaram', rown =31),];</v>
-      </c>
-      <c r="M32" t="str">
-        <f t="shared" si="0"/>
-        <v>print(31);</v>
-      </c>
-      <c r="N32" t="str">
-        <f t="shared" si="1"/>
         <v>url31 = 'https://www.moneycontrol.com/mutual-funds/sundaram-mid-cap-fund-direct-plan/portfolio-overview/MSN568';url31 =  read_html (url31);url_tbl31 = url31 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl31 = data.table(url_tbl31);url_tbl31 = url_tbl31[, `:=` (url ='Sundaram', rown =31),];print(31);</v>
       </c>
     </row>
@@ -27709,31 +27840,31 @@
         <v>1027</v>
       </c>
       <c r="H33" t="str">
+        <f t="shared" si="11"/>
+        <v>url32 = 'https://www.moneycontrol.com/mutual-funds/sbi-magnum-midcap-fund-direct-plan/portfolio-overview/MSB505';</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="7"/>
+        <v>url32 =  read_html (url32);</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl32 = url32 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl32 = data.table(url_tbl32);</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl32 = url_tbl32[, `:=` (url ='SBI', rown =32),];</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="5"/>
+        <v>print(32);</v>
+      </c>
+      <c r="N33" t="str">
         <f t="shared" si="6"/>
-        <v>url32 = 'https://www.moneycontrol.com/mutual-funds/sbi-magnum-midcap-fund-direct-plan/portfolio-overview/MSB505';</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="2"/>
-        <v>url32 =  read_html (url32);</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl32 = url32 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl32 = data.table(url_tbl32);</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl32 = url_tbl32[, `:=` (url ='SBI', rown =32),];</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" si="0"/>
-        <v>print(32);</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="1"/>
         <v>url32 = 'https://www.moneycontrol.com/mutual-funds/sbi-magnum-midcap-fund-direct-plan/portfolio-overview/MSB505';url32 =  read_html (url32);url_tbl32 = url32 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl32 = data.table(url_tbl32);url_tbl32 = url_tbl32[, `:=` (url ='SBI', rown =32),];print(32);</v>
       </c>
     </row>
@@ -27760,31 +27891,31 @@
         <v>1028</v>
       </c>
       <c r="H34" t="str">
+        <f t="shared" si="11"/>
+        <v>url33 = 'https://www.moneycontrol.com/mutual-funds/uti-mid-cap-fund-direct-plan/portfolio-overview/MUT637';</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="7"/>
+        <v>url33 =  read_html (url33);</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl33 = url33 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl33 = data.table(url_tbl33);</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl33 = url_tbl33[, `:=` (url ='UTI', rown =33),];</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="5"/>
+        <v>print(33);</v>
+      </c>
+      <c r="N34" t="str">
         <f t="shared" si="6"/>
-        <v>url33 = 'https://www.moneycontrol.com/mutual-funds/uti-mid-cap-fund-direct-plan/portfolio-overview/MUT637';</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="2"/>
-        <v>url33 =  read_html (url33);</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl33 = url33 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl33 = data.table(url_tbl33);</v>
-      </c>
-      <c r="L34" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl33 = url_tbl33[, `:=` (url ='UTI', rown =33),];</v>
-      </c>
-      <c r="M34" t="str">
-        <f t="shared" si="0"/>
-        <v>print(33);</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="1"/>
         <v>url33 = 'https://www.moneycontrol.com/mutual-funds/uti-mid-cap-fund-direct-plan/portfolio-overview/MUT637';url33 =  read_html (url33);url_tbl33 = url33 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl33 = data.table(url_tbl33);url_tbl33 = url_tbl33[, `:=` (url ='UTI', rown =33),];print(33);</v>
       </c>
     </row>
@@ -27811,31 +27942,31 @@
         <v>1029</v>
       </c>
       <c r="H35" t="str">
+        <f t="shared" si="11"/>
+        <v>url34 = 'https://www.moneycontrol.com/mutual-funds/mirae-asset-midcap-fund-direct-plan/portfolio-overview/MMA173';</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="7"/>
+        <v>url34 =  read_html (url34);</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl34 = url34 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl34 = data.table(url_tbl34);</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl34 = url_tbl34[, `:=` (url ='Mirae', rown =34),];</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="5"/>
+        <v>print(34);</v>
+      </c>
+      <c r="N35" t="str">
         <f t="shared" si="6"/>
-        <v>url34 = 'https://www.moneycontrol.com/mutual-funds/mirae-asset-midcap-fund-direct-plan/portfolio-overview/MMA173';</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="2"/>
-        <v>url34 =  read_html (url34);</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl34 = url34 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl34 = data.table(url_tbl34);</v>
-      </c>
-      <c r="L35" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl34 = url_tbl34[, `:=` (url ='Mirae', rown =34),];</v>
-      </c>
-      <c r="M35" t="str">
-        <f t="shared" si="0"/>
-        <v>print(34);</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="1"/>
         <v>url34 = 'https://www.moneycontrol.com/mutual-funds/mirae-asset-midcap-fund-direct-plan/portfolio-overview/MMA173';url34 =  read_html (url34);url_tbl34 = url34 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl34 = data.table(url_tbl34);url_tbl34 = url_tbl34[, `:=` (url ='Mirae', rown =34),];print(34);</v>
       </c>
     </row>
@@ -27862,31 +27993,31 @@
         <v>1030</v>
       </c>
       <c r="H36" t="str">
+        <f t="shared" si="11"/>
+        <v>url35 = 'https://www.moneycontrol.com/mutual-funds/aditya-birla-sun-life-midcap-fund-direct-plan/portfolio-overview/MBS829';</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="7"/>
+        <v>url35 =  read_html (url35);</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl35 = url35 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl35 = data.table(url_tbl35);</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl35 = url_tbl35[, `:=` (url ='Aditya Birla', rown =35),];</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="5"/>
+        <v>print(35);</v>
+      </c>
+      <c r="N36" t="str">
         <f t="shared" si="6"/>
-        <v>url35 = 'https://www.moneycontrol.com/mutual-funds/aditya-birla-sun-life-midcap-fund-direct-plan/portfolio-overview/MBS829';</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="2"/>
-        <v>url35 =  read_html (url35);</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl35 = url35 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl35 = data.table(url_tbl35);</v>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl35 = url_tbl35[, `:=` (url ='Aditya Birla', rown =35),];</v>
-      </c>
-      <c r="M36" t="str">
-        <f t="shared" si="0"/>
-        <v>print(35);</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="1"/>
         <v>url35 = 'https://www.moneycontrol.com/mutual-funds/aditya-birla-sun-life-midcap-fund-direct-plan/portfolio-overview/MBS829';url35 =  read_html (url35);url_tbl35 = url35 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl35 = data.table(url_tbl35);url_tbl35 = url_tbl35[, `:=` (url ='Aditya Birla', rown =35),];print(35);</v>
       </c>
     </row>
@@ -27913,31 +28044,31 @@
         <v>1031</v>
       </c>
       <c r="H37" t="str">
+        <f t="shared" si="11"/>
+        <v>url36 = 'https://www.moneycontrol.com/mutual-funds/icici-prudential-midcap-fund-direct-plan/portfolio-overview/MPI1150';</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="7"/>
+        <v>url36 =  read_html (url36);</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl36 = url36 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl36 = data.table(url_tbl36);</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl36 = url_tbl36[, `:=` (url ='ICICI', rown =36),];</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="5"/>
+        <v>print(36);</v>
+      </c>
+      <c r="N37" t="str">
         <f t="shared" si="6"/>
-        <v>url36 = 'https://www.moneycontrol.com/mutual-funds/icici-prudential-midcap-fund-direct-plan/portfolio-overview/MPI1150';</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="2"/>
-        <v>url36 =  read_html (url36);</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl36 = url36 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl36 = data.table(url_tbl36);</v>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl36 = url_tbl36[, `:=` (url ='ICICI', rown =36),];</v>
-      </c>
-      <c r="M37" t="str">
-        <f t="shared" si="0"/>
-        <v>print(36);</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="1"/>
         <v>url36 = 'https://www.moneycontrol.com/mutual-funds/icici-prudential-midcap-fund-direct-plan/portfolio-overview/MPI1150';url36 =  read_html (url36);url_tbl36 = url36 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl36 = data.table(url_tbl36);url_tbl36 = url_tbl36[, `:=` (url ='ICICI', rown =36),];print(36);</v>
       </c>
     </row>
@@ -27964,31 +28095,31 @@
         <v>1032</v>
       </c>
       <c r="H38" t="str">
+        <f t="shared" si="11"/>
+        <v>url37 = 'https://www.moneycontrol.com/mutual-funds/motilal-oswal-midcap-30-fund-direct-plan/portfolio-overview/MMO027';</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="7"/>
+        <v>url37 =  read_html (url37);</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl37 = url37 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl37 = data.table(url_tbl37);</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl37 = url_tbl37[, `:=` (url ='Motilal Oswal', rown =37),];</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="5"/>
+        <v>print(37);</v>
+      </c>
+      <c r="N38" t="str">
         <f t="shared" si="6"/>
-        <v>url37 = 'https://www.moneycontrol.com/mutual-funds/motilal-oswal-midcap-30-fund-direct-plan/portfolio-overview/MMO027';</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="2"/>
-        <v>url37 =  read_html (url37);</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl37 = url37 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K38" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl37 = data.table(url_tbl37);</v>
-      </c>
-      <c r="L38" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl37 = url_tbl37[, `:=` (url ='Motilal Oswal', rown =37),];</v>
-      </c>
-      <c r="M38" t="str">
-        <f t="shared" si="0"/>
-        <v>print(37);</v>
-      </c>
-      <c r="N38" t="str">
-        <f t="shared" si="1"/>
         <v>url37 = 'https://www.moneycontrol.com/mutual-funds/motilal-oswal-midcap-30-fund-direct-plan/portfolio-overview/MMO027';url37 =  read_html (url37);url_tbl37 = url37 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl37 = data.table(url_tbl37);url_tbl37 = url_tbl37[, `:=` (url ='Motilal Oswal', rown =37),];print(37);</v>
       </c>
     </row>
@@ -28015,31 +28146,31 @@
         <v>1033</v>
       </c>
       <c r="H39" t="str">
+        <f t="shared" si="11"/>
+        <v>url38 = 'https://www.moneycontrol.com/mutual-funds/pgim-india-midcap-opportunities-fund-direct-plan/portfolio-overview/MPA139';</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="7"/>
+        <v>url38 =  read_html (url38);</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl38 = url38 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl38 = data.table(url_tbl38);</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl38 = url_tbl38[, `:=` (url ='PGIM', rown =38),];</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="5"/>
+        <v>print(38);</v>
+      </c>
+      <c r="N39" t="str">
         <f t="shared" si="6"/>
-        <v>url38 = 'https://www.moneycontrol.com/mutual-funds/pgim-india-midcap-opportunities-fund-direct-plan/portfolio-overview/MPA139';</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="2"/>
-        <v>url38 =  read_html (url38);</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl38 = url38 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K39" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl38 = data.table(url_tbl38);</v>
-      </c>
-      <c r="L39" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl38 = url_tbl38[, `:=` (url ='PGIM', rown =38),];</v>
-      </c>
-      <c r="M39" t="str">
-        <f t="shared" si="0"/>
-        <v>print(38);</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" si="1"/>
         <v>url38 = 'https://www.moneycontrol.com/mutual-funds/pgim-india-midcap-opportunities-fund-direct-plan/portfolio-overview/MPA139';url38 =  read_html (url38);url_tbl38 = url38 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl38 = data.table(url_tbl38);url_tbl38 = url_tbl38[, `:=` (url ='PGIM', rown =38),];print(38);</v>
       </c>
     </row>
@@ -28066,31 +28197,31 @@
         <v>1034</v>
       </c>
       <c r="H40" t="str">
+        <f t="shared" si="11"/>
+        <v>url39 = 'https://www.moneycontrol.com/mutual-funds/invesco-india-midcap-fund-direct-plan/portfolio-overview/MLI556';</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="7"/>
+        <v>url39 =  read_html (url39);</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl39 = url39 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl39 = data.table(url_tbl39);</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl39 = url_tbl39[, `:=` (url ='Invesco', rown =39),];</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="5"/>
+        <v>print(39);</v>
+      </c>
+      <c r="N40" t="str">
         <f t="shared" si="6"/>
-        <v>url39 = 'https://www.moneycontrol.com/mutual-funds/invesco-india-midcap-fund-direct-plan/portfolio-overview/MLI556';</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="2"/>
-        <v>url39 =  read_html (url39);</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl39 = url39 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl39 = data.table(url_tbl39);</v>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl39 = url_tbl39[, `:=` (url ='Invesco', rown =39),];</v>
-      </c>
-      <c r="M40" t="str">
-        <f t="shared" si="0"/>
-        <v>print(39);</v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="1"/>
         <v>url39 = 'https://www.moneycontrol.com/mutual-funds/invesco-india-midcap-fund-direct-plan/portfolio-overview/MLI556';url39 =  read_html (url39);url_tbl39 = url39 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl39 = data.table(url_tbl39);url_tbl39 = url_tbl39[, `:=` (url ='Invesco', rown =39),];print(39);</v>
       </c>
     </row>
@@ -28117,31 +28248,31 @@
         <v>1035</v>
       </c>
       <c r="H41" t="str">
+        <f t="shared" si="11"/>
+        <v>url40 = 'https://www.moneycontrol.com/mutual-funds/edelweiss-mid-cap-fund-direct-plan/portfolio-overview/MJP117';</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="7"/>
+        <v>url40 =  read_html (url40);</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl40 = url40 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl40 = data.table(url_tbl40);</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl40 = url_tbl40[, `:=` (url ='Edelweiss', rown =40),];</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="5"/>
+        <v>print(40);</v>
+      </c>
+      <c r="N41" t="str">
         <f t="shared" si="6"/>
-        <v>url40 = 'https://www.moneycontrol.com/mutual-funds/edelweiss-mid-cap-fund-direct-plan/portfolio-overview/MJP117';</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="2"/>
-        <v>url40 =  read_html (url40);</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl40 = url40 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K41" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl40 = data.table(url_tbl40);</v>
-      </c>
-      <c r="L41" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl40 = url_tbl40[, `:=` (url ='Edelweiss', rown =40),];</v>
-      </c>
-      <c r="M41" t="str">
-        <f t="shared" si="0"/>
-        <v>print(40);</v>
-      </c>
-      <c r="N41" t="str">
-        <f t="shared" si="1"/>
         <v>url40 = 'https://www.moneycontrol.com/mutual-funds/edelweiss-mid-cap-fund-direct-plan/portfolio-overview/MJP117';url40 =  read_html (url40);url_tbl40 = url40 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl40 = data.table(url_tbl40);url_tbl40 = url_tbl40[, `:=` (url ='Edelweiss', rown =40),];print(40);</v>
       </c>
     </row>
@@ -28168,31 +28299,31 @@
         <v>1036</v>
       </c>
       <c r="H42" t="str">
+        <f t="shared" si="11"/>
+        <v>url41 = 'https://www.moneycontrol.com/mutual-funds/tata-mid-cap-growth-fund-direct-plan/portfolio-overview/MTA776';</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="7"/>
+        <v>url41 =  read_html (url41);</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl41 = url41 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl41 = data.table(url_tbl41);</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl41 = url_tbl41[, `:=` (url ='Tata', rown =41),];</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="5"/>
+        <v>print(41);</v>
+      </c>
+      <c r="N42" t="str">
         <f t="shared" si="6"/>
-        <v>url41 = 'https://www.moneycontrol.com/mutual-funds/tata-mid-cap-growth-fund-direct-plan/portfolio-overview/MTA776';</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="2"/>
-        <v>url41 =  read_html (url41);</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl41 = url41 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K42" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl41 = data.table(url_tbl41);</v>
-      </c>
-      <c r="L42" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl41 = url_tbl41[, `:=` (url ='Tata', rown =41),];</v>
-      </c>
-      <c r="M42" t="str">
-        <f t="shared" si="0"/>
-        <v>print(41);</v>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" si="1"/>
         <v>url41 = 'https://www.moneycontrol.com/mutual-funds/tata-mid-cap-growth-fund-direct-plan/portfolio-overview/MTA776';url41 =  read_html (url41);url_tbl41 = url41 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl41 = data.table(url_tbl41);url_tbl41 = url_tbl41[, `:=` (url ='Tata', rown =41),];print(41);</v>
       </c>
     </row>
@@ -28219,31 +28350,31 @@
         <v>1037</v>
       </c>
       <c r="H43" t="str">
+        <f t="shared" si="11"/>
+        <v>url42 = 'https://www.moneycontrol.com/mutual-funds/bnp-paribas-mid-cap-fund-direct-plan/portfolio-overview/MAB726';</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="7"/>
+        <v>url42 =  read_html (url42);</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl42 = url42 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl42 = data.table(url_tbl42);</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl42 = url_tbl42[, `:=` (url ='BNP', rown =42),];</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="5"/>
+        <v>print(42);</v>
+      </c>
+      <c r="N43" t="str">
         <f t="shared" si="6"/>
-        <v>url42 = 'https://www.moneycontrol.com/mutual-funds/bnp-paribas-mid-cap-fund-direct-plan/portfolio-overview/MAB726';</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="2"/>
-        <v>url42 =  read_html (url42);</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl42 = url42 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K43" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl42 = data.table(url_tbl42);</v>
-      </c>
-      <c r="L43" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl42 = url_tbl42[, `:=` (url ='BNP', rown =42),];</v>
-      </c>
-      <c r="M43" t="str">
-        <f t="shared" si="0"/>
-        <v>print(42);</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="1"/>
         <v>url42 = 'https://www.moneycontrol.com/mutual-funds/bnp-paribas-mid-cap-fund-direct-plan/portfolio-overview/MAB726';url42 =  read_html (url42);url_tbl42 = url42 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl42 = data.table(url_tbl42);url_tbl42 = url_tbl42[, `:=` (url ='BNP', rown =42),];print(42);</v>
       </c>
     </row>
@@ -28270,31 +28401,31 @@
         <v>1038</v>
       </c>
       <c r="H44" t="str">
+        <f t="shared" si="11"/>
+        <v>url43 = 'https://www.moneycontrol.com/mutual-funds/mahindra-manulife-mid-cap-unnati-yojana-direct-plan/portfolio-overview/MMH037';</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="7"/>
+        <v>url43 =  read_html (url43);</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl43 = url43 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl43 = data.table(url_tbl43);</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl43 = url_tbl43[, `:=` (url ='Mahindra Manulife', rown =43),];</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="5"/>
+        <v>print(43);</v>
+      </c>
+      <c r="N44" t="str">
         <f t="shared" si="6"/>
-        <v>url43 = 'https://www.moneycontrol.com/mutual-funds/mahindra-manulife-mid-cap-unnati-yojana-direct-plan/portfolio-overview/MMH037';</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="2"/>
-        <v>url43 =  read_html (url43);</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl43 = url43 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K44" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl43 = data.table(url_tbl43);</v>
-      </c>
-      <c r="L44" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl43 = url_tbl43[, `:=` (url ='Mahindra Manulife', rown =43),];</v>
-      </c>
-      <c r="M44" t="str">
-        <f t="shared" si="0"/>
-        <v>print(43);</v>
-      </c>
-      <c r="N44" t="str">
-        <f t="shared" si="1"/>
         <v>url43 = 'https://www.moneycontrol.com/mutual-funds/mahindra-manulife-mid-cap-unnati-yojana-direct-plan/portfolio-overview/MMH037';url43 =  read_html (url43);url_tbl43 = url43 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl43 = data.table(url_tbl43);url_tbl43 = url_tbl43[, `:=` (url ='Mahindra Manulife', rown =43),];print(43);</v>
       </c>
     </row>
@@ -28321,31 +28452,31 @@
         <v>1039</v>
       </c>
       <c r="H45" t="str">
+        <f t="shared" si="11"/>
+        <v>url44 = 'https://www.moneycontrol.com/mutual-funds/principal-midcap-fund-direct-plan/portfolio-overview/MID398';</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="7"/>
+        <v>url44 =  read_html (url44);</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl44 = url44 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl44 = data.table(url_tbl44);</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl44 = url_tbl44[, `:=` (url ='Principal', rown =44),];</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="5"/>
+        <v>print(44);</v>
+      </c>
+      <c r="N45" t="str">
         <f t="shared" si="6"/>
-        <v>url44 = 'https://www.moneycontrol.com/mutual-funds/principal-midcap-fund-direct-plan/portfolio-overview/MID398';</v>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" si="2"/>
-        <v>url44 =  read_html (url44);</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl44 = url44 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K45" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl44 = data.table(url_tbl44);</v>
-      </c>
-      <c r="L45" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl44 = url_tbl44[, `:=` (url ='Principal', rown =44),];</v>
-      </c>
-      <c r="M45" t="str">
-        <f t="shared" si="0"/>
-        <v>print(44);</v>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" si="1"/>
         <v>url44 = 'https://www.moneycontrol.com/mutual-funds/principal-midcap-fund-direct-plan/portfolio-overview/MID398';url44 =  read_html (url44);url_tbl44 = url44 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl44 = data.table(url_tbl44);url_tbl44 = url_tbl44[, `:=` (url ='Principal', rown =44),];print(44);</v>
       </c>
     </row>
@@ -28372,31 +28503,31 @@
         <v>1040</v>
       </c>
       <c r="H46" t="str">
+        <f t="shared" si="11"/>
+        <v>url45 = 'https://www.moneycontrol.com/mutual-funds/iti-mid-cap-fund-direct-plan/portfolio-overview/MIT055';</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="7"/>
+        <v>url45 =  read_html (url45);</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl45 = url45 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl45 = data.table(url_tbl45);</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl45 = url_tbl45[, `:=` (url ='ITI', rown =45),];</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="5"/>
+        <v>print(45);</v>
+      </c>
+      <c r="N46" t="str">
         <f t="shared" si="6"/>
-        <v>url45 = 'https://www.moneycontrol.com/mutual-funds/iti-mid-cap-fund-direct-plan/portfolio-overview/MIT055';</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="2"/>
-        <v>url45 =  read_html (url45);</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl45 = url45 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K46" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl45 = data.table(url_tbl45);</v>
-      </c>
-      <c r="L46" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl45 = url_tbl45[, `:=` (url ='ITI', rown =45),];</v>
-      </c>
-      <c r="M46" t="str">
-        <f t="shared" si="0"/>
-        <v>print(45);</v>
-      </c>
-      <c r="N46" t="str">
-        <f t="shared" si="1"/>
         <v>url45 = 'https://www.moneycontrol.com/mutual-funds/iti-mid-cap-fund-direct-plan/portfolio-overview/MIT055';url45 =  read_html (url45);url_tbl45 = url45 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl45 = data.table(url_tbl45);url_tbl45 = url_tbl45[, `:=` (url ='ITI', rown =45),];print(45);</v>
       </c>
     </row>
@@ -28423,31 +28554,31 @@
         <v>1041</v>
       </c>
       <c r="H47" t="str">
+        <f t="shared" si="11"/>
+        <v>url46 = 'https://www.moneycontrol.com/mutual-funds/union-midcap-fund-direct-plan/portfolio-overview/MUK152';</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="7"/>
+        <v>url46 =  read_html (url46);</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl46 = url46 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl46 = data.table(url_tbl46);</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl46 = url_tbl46[, `:=` (url ='Union', rown =46),];</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="5"/>
+        <v>print(46);</v>
+      </c>
+      <c r="N47" t="str">
         <f t="shared" si="6"/>
-        <v>url46 = 'https://www.moneycontrol.com/mutual-funds/union-midcap-fund-direct-plan/portfolio-overview/MUK152';</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" si="2"/>
-        <v>url46 =  read_html (url46);</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl46 = url46 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K47" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl46 = data.table(url_tbl46);</v>
-      </c>
-      <c r="L47" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl46 = url_tbl46[, `:=` (url ='Union', rown =46),];</v>
-      </c>
-      <c r="M47" t="str">
-        <f t="shared" si="0"/>
-        <v>print(46);</v>
-      </c>
-      <c r="N47" t="str">
-        <f t="shared" si="1"/>
         <v>url46 = 'https://www.moneycontrol.com/mutual-funds/union-midcap-fund-direct-plan/portfolio-overview/MUK152';url46 =  read_html (url46);url_tbl46 = url46 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl46 = data.table(url_tbl46);url_tbl46 = url_tbl46[, `:=` (url ='Union', rown =46),];print(46);</v>
       </c>
     </row>
@@ -28474,31 +28605,31 @@
         <v>1042</v>
       </c>
       <c r="H48" t="str">
+        <f t="shared" si="11"/>
+        <v>url47 = 'https://www.moneycontrol.com/mutual-funds/idbi-midcap-fund-direct-plan/portfolio-overview/MIB230';</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="7"/>
+        <v>url47 =  read_html (url47);</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl47 = url47 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl47 = data.table(url_tbl47);</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl47 = url_tbl47[, `:=` (url ='IDBI', rown =47),];</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="5"/>
+        <v>print(47);</v>
+      </c>
+      <c r="N48" t="str">
         <f t="shared" si="6"/>
-        <v>url47 = 'https://www.moneycontrol.com/mutual-funds/idbi-midcap-fund-direct-plan/portfolio-overview/MIB230';</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="2"/>
-        <v>url47 =  read_html (url47);</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl47 = url47 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K48" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl47 = data.table(url_tbl47);</v>
-      </c>
-      <c r="L48" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl47 = url_tbl47[, `:=` (url ='IDBI', rown =47),];</v>
-      </c>
-      <c r="M48" t="str">
-        <f t="shared" si="0"/>
-        <v>print(47);</v>
-      </c>
-      <c r="N48" t="str">
-        <f t="shared" si="1"/>
         <v>url47 = 'https://www.moneycontrol.com/mutual-funds/idbi-midcap-fund-direct-plan/portfolio-overview/MIB230';url47 =  read_html (url47);url_tbl47 = url47 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl47 = data.table(url_tbl47);url_tbl47 = url_tbl47[, `:=` (url ='IDBI', rown =47),];print(47);</v>
       </c>
     </row>
@@ -28525,31 +28656,31 @@
         <v>1043</v>
       </c>
       <c r="H49" t="str">
+        <f t="shared" si="11"/>
+        <v>url48 = 'https://www.moneycontrol.com/mutual-funds/quant-mid-cap-fund-direct-plan/portfolio-overview/MES043';</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="7"/>
+        <v>url48 =  read_html (url48);</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl48 = url48 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl48 = data.table(url_tbl48);</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl48 = url_tbl48[, `:=` (url ='Quant', rown =48),];</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="5"/>
+        <v>print(48);</v>
+      </c>
+      <c r="N49" t="str">
         <f t="shared" si="6"/>
-        <v>url48 = 'https://www.moneycontrol.com/mutual-funds/quant-mid-cap-fund-direct-plan/portfolio-overview/MES043';</v>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="2"/>
-        <v>url48 =  read_html (url48);</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl48 = url48 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K49" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl48 = data.table(url_tbl48);</v>
-      </c>
-      <c r="L49" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl48 = url_tbl48[, `:=` (url ='Quant', rown =48),];</v>
-      </c>
-      <c r="M49" t="str">
-        <f t="shared" si="0"/>
-        <v>print(48);</v>
-      </c>
-      <c r="N49" t="str">
-        <f t="shared" si="1"/>
         <v>url48 = 'https://www.moneycontrol.com/mutual-funds/quant-mid-cap-fund-direct-plan/portfolio-overview/MES043';url48 =  read_html (url48);url_tbl48 = url48 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl48 = data.table(url_tbl48);url_tbl48 = url_tbl48[, `:=` (url ='Quant', rown =48),];print(48);</v>
       </c>
     </row>
@@ -28576,31 +28707,31 @@
         <v>1044</v>
       </c>
       <c r="H50" t="str">
+        <f t="shared" si="11"/>
+        <v>url49 = 'https://www.moneycontrol.com/mutual-funds/taurus-discovery-midcap-fund-direct-plan/portfolio-overview/MCM132';</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="7"/>
+        <v>url49 =  read_html (url49);</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl49 = url49 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl49 = data.table(url_tbl49);</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl49 = url_tbl49[, `:=` (url ='Taurus', rown =49),];</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="5"/>
+        <v>print(49);</v>
+      </c>
+      <c r="N50" t="str">
         <f t="shared" si="6"/>
-        <v>url49 = 'https://www.moneycontrol.com/mutual-funds/taurus-discovery-midcap-fund-direct-plan/portfolio-overview/MCM132';</v>
-      </c>
-      <c r="I50" t="str">
-        <f t="shared" si="2"/>
-        <v>url49 =  read_html (url49);</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl49 = url49 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K50" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl49 = data.table(url_tbl49);</v>
-      </c>
-      <c r="L50" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl49 = url_tbl49[, `:=` (url ='Taurus', rown =49),];</v>
-      </c>
-      <c r="M50" t="str">
-        <f t="shared" si="0"/>
-        <v>print(49);</v>
-      </c>
-      <c r="N50" t="str">
-        <f t="shared" si="1"/>
         <v>url49 = 'https://www.moneycontrol.com/mutual-funds/taurus-discovery-midcap-fund-direct-plan/portfolio-overview/MCM132';url49 =  read_html (url49);url_tbl49 = url49 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl49 = data.table(url_tbl49);url_tbl49 = url_tbl49[, `:=` (url ='Taurus', rown =49),];print(49);</v>
       </c>
     </row>
@@ -28627,31 +28758,31 @@
         <v>1045</v>
       </c>
       <c r="H51" t="str">
+        <f t="shared" si="11"/>
+        <v>url50 = 'https://www.moneycontrol.com/mutual-funds/baroda-pioneer-mid-cap-fund-direct-plan-b/portfolio-overview/MBO097';</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="7"/>
+        <v>url50 =  read_html (url50);</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="8"/>
+        <v>url_tbl50 = url50 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="9"/>
+        <v>url_tbl50 = data.table(url_tbl50);</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="10"/>
+        <v>url_tbl50 = url_tbl50[, `:=` (url ='Baroda', rown =50),];</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="5"/>
+        <v>print(50);</v>
+      </c>
+      <c r="N51" t="str">
         <f t="shared" si="6"/>
-        <v>url50 = 'https://www.moneycontrol.com/mutual-funds/baroda-pioneer-mid-cap-fund-direct-plan-b/portfolio-overview/MBO097';</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" si="2"/>
-        <v>url50 =  read_html (url50);</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="3"/>
-        <v>url_tbl50 = url50 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];</v>
-      </c>
-      <c r="K51" t="str">
-        <f t="shared" si="4"/>
-        <v>url_tbl50 = data.table(url_tbl50);</v>
-      </c>
-      <c r="L51" t="str">
-        <f t="shared" si="5"/>
-        <v>url_tbl50 = url_tbl50[, `:=` (url ='Baroda', rown =50),];</v>
-      </c>
-      <c r="M51" t="str">
-        <f t="shared" si="0"/>
-        <v>print(50);</v>
-      </c>
-      <c r="N51" t="str">
-        <f t="shared" si="1"/>
         <v>url50 = 'https://www.moneycontrol.com/mutual-funds/baroda-pioneer-mid-cap-fund-direct-plan-b/portfolio-overview/MBO097';url50 =  read_html (url50);url_tbl50 = url50 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[5]];url_tbl50 = data.table(url_tbl50);url_tbl50 = url_tbl50[, `:=` (url ='Baroda', rown =50),];print(50);</v>
       </c>
     </row>
@@ -28709,4 +28840,1244 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C1" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1" t="s">
+        <v>987</v>
+      </c>
+      <c r="G1" t="s">
+        <v>988</v>
+      </c>
+      <c r="H1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1" t="s">
+        <v>990</v>
+      </c>
+      <c r="J1" t="s">
+        <v>991</v>
+      </c>
+      <c r="K1" t="s">
+        <v>992</v>
+      </c>
+      <c r="L1" t="s">
+        <v>993</v>
+      </c>
+      <c r="M1" t="s">
+        <v>995</v>
+      </c>
+      <c r="N1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H51" si="0">CONCATENATE(B2, " = '", G2, "';")</f>
+        <v>url1 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/automotive.html';</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I51" si="1">CONCATENATE(B2, " =  read_html (", B2, ");")</f>
+        <v>url1 =  read_html (url1);</v>
+      </c>
+      <c r="J2" t="str">
+        <f>CONCATENATE(C2, " = ", B2, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];")</f>
+        <v>url_tbl1 = url1 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K51" si="2">CONCATENATE(C2, " = data.table(", C2, ");" )</f>
+        <v>url_tbl1 = data.table(url_tbl1);</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L51" si="3">CONCATENATE(C2, " = ", C2, "[, `:=` (url ='",D2, "', rown =", F2, "),];" )</f>
+        <v>url_tbl1 = url_tbl1[, `:=` (url ='NSE', rown =1),];</v>
+      </c>
+      <c r="M2" t="str">
+        <f>CONCATENATE("print(", F2, ");")</f>
+        <v>print(1);</v>
+      </c>
+      <c r="N2" t="str">
+        <f>CONCATENATE(H2,I2,J2, K2, L2, M2)</f>
+        <v>url1 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/automotive.html';url1 =  read_html (url1);url_tbl1 = url1 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl1 = data.table(url_tbl1);url_tbl1 = url_tbl1[, `:=` (url ='NSE', rown =1),];print(1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>url2 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/banking-finance.html';</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>url2 =  read_html (url2);</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J51" si="4">CONCATENATE(C3, " = ", B3, " %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];")</f>
+        <v>url_tbl2 = url2 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl2 = data.table(url_tbl2);</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl2 = url_tbl2[, `:=` (url ='NSE', rown =2),];</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M51" si="5">CONCATENATE("print(", F3, ");")</f>
+        <v>print(2);</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N51" si="6">CONCATENATE(H3,I3,J3, K3, L3, M3)</f>
+        <v>url2 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/banking-finance.html';url2 =  read_html (url2);url_tbl2 = url2 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl2 = data.table(url_tbl2);url_tbl2 = url_tbl2[, `:=` (url ='NSE', rown =2),];print(2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>url3 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/cement-construction.html';</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>url3 =  read_html (url3);</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl3 = url3 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl3 = data.table(url_tbl3);</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl3 = url_tbl3[, `:=` (url ='NSE', rown =3),];</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="5"/>
+        <v>print(3);</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="6"/>
+        <v>url3 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/cement-construction.html';url3 =  read_html (url3);url_tbl3 = url3 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl3 = data.table(url_tbl3);url_tbl3 = url_tbl3[, `:=` (url ='NSE', rown =3),];print(3);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>url4 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/chemicals.html';</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>url4 =  read_html (url4);</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl4 = url4 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl4 = data.table(url_tbl4);</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl4 = url_tbl4[, `:=` (url ='NSE', rown =4),];</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="5"/>
+        <v>print(4);</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="6"/>
+        <v>url4 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/chemicals.html';url4 =  read_html (url4);url_tbl4 = url4 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl4 = data.table(url_tbl4);url_tbl4 = url_tbl4[, `:=` (url ='NSE', rown =4),];print(4);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>url5 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/conglomerates.html';</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>url5 =  read_html (url5);</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl5 = url5 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl5 = data.table(url_tbl5);</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl5 = url_tbl5[, `:=` (url ='NSE', rown =5),];</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="5"/>
+        <v>print(5);</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="6"/>
+        <v>url5 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/conglomerates.html';url5 =  read_html (url5);url_tbl5 = url5 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl5 = data.table(url_tbl5);url_tbl5 = url_tbl5[, `:=` (url ='NSE', rown =5),];print(5);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>url6 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/consumer-durable.html';</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>url6 =  read_html (url6);</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl6 = url6 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl6 = data.table(url_tbl6);</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl6 = url_tbl6[, `:=` (url ='NSE', rown =6),];</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="5"/>
+        <v>print(6);</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="6"/>
+        <v>url6 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/consumer-durable.html';url6 =  read_html (url6);url_tbl6 = url6 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl6 = data.table(url_tbl6);url_tbl6 = url_tbl6[, `:=` (url ='NSE', rown =6),];print(6);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>url7 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/consumer-non-durable.html';</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>url7 =  read_html (url7);</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl7 = url7 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl7 = data.table(url_tbl7);</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl7 = url_tbl7[, `:=` (url ='NSE', rown =7),];</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="5"/>
+        <v>print(7);</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="6"/>
+        <v>url7 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/consumer-non-durable.html';url7 =  read_html (url7);url_tbl7 = url7 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl7 = data.table(url_tbl7);url_tbl7 = url_tbl7[, `:=` (url ='NSE', rown =7),];print(7);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>url8 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/engineering.html';</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>url8 =  read_html (url8);</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl8 = url8 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl8 = data.table(url_tbl8);</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl8 = url_tbl8[, `:=` (url ='NSE', rown =8),];</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="5"/>
+        <v>print(8);</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="6"/>
+        <v>url8 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/engineering.html';url8 =  read_html (url8);url_tbl8 = url8 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl8 = data.table(url_tbl8);url_tbl8 = url_tbl8[, `:=` (url ='NSE', rown =8),];print(8);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>url9 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/food-beverage.html';</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>url9 =  read_html (url9);</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl9 = url9 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl9 = data.table(url_tbl9);</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl9 = url_tbl9[, `:=` (url ='NSE', rown =9),];</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="5"/>
+        <v>print(9);</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="6"/>
+        <v>url9 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/food-beverage.html';url9 =  read_html (url9);url_tbl9 = url9 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl9 = data.table(url_tbl9);url_tbl9 = url_tbl9[, `:=` (url ='NSE', rown =9),];print(9);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>url10 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/technology.html';</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>url10 =  read_html (url10);</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl10 = url10 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl10 = data.table(url_tbl10);</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl10 = url_tbl10[, `:=` (url ='NSE', rown =10),];</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="5"/>
+        <v>print(10);</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="6"/>
+        <v>url10 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/technology.html';url10 =  read_html (url10);url_tbl10 = url10 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl10 = data.table(url_tbl10);url_tbl10 = url_tbl10[, `:=` (url ='NSE', rown =10),];print(10);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>url11 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/manufacturing.html';</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>url11 =  read_html (url11);</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl11 = url11 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl11 = data.table(url_tbl11);</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl11 = url_tbl11[, `:=` (url ='NSE', rown =11),];</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="5"/>
+        <v>print(11);</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="6"/>
+        <v>url11 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/manufacturing.html';url11 =  read_html (url11);url_tbl11 = url11 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl11 = data.table(url_tbl11);url_tbl11 = url_tbl11[, `:=` (url ='NSE', rown =11),];print(11);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>url12 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/media.html';</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>url12 =  read_html (url12);</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl12 = url12 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl12 = data.table(url_tbl12);</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl12 = url_tbl12[, `:=` (url ='NSE', rown =12),];</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="5"/>
+        <v>print(12);</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="6"/>
+        <v>url12 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/media.html';url12 =  read_html (url12);url_tbl12 = url12 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl12 = data.table(url_tbl12);url_tbl12 = url_tbl12[, `:=` (url ='NSE', rown =12),];print(12);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>url13 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/metals-mining.html';</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>url13 =  read_html (url13);</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl13 = url13 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl13 = data.table(url_tbl13);</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl13 = url_tbl13[, `:=` (url ='NSE', rown =13),];</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="5"/>
+        <v>print(13);</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="6"/>
+        <v>url13 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/metals-mining.html';url13 =  read_html (url13);url_tbl13 = url13 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl13 = data.table(url_tbl13);url_tbl13 = url_tbl13[, `:=` (url ='NSE', rown =13),];print(13);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>url14 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/miscellaneous.html';</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>url14 =  read_html (url14);</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl14 = url14 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl14 = data.table(url_tbl14);</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl14 = url_tbl14[, `:=` (url ='NSE', rown =14),];</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="5"/>
+        <v>print(14);</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="6"/>
+        <v>url14 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/miscellaneous.html';url14 =  read_html (url14);url_tbl14 = url14 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl14 = data.table(url_tbl14);url_tbl14 = url_tbl14[, `:=` (url ='NSE', rown =14),];print(14);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>url15 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/oil-gas.html';</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>url15 =  read_html (url15);</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl15 = url15 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl15 = data.table(url_tbl15);</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl15 = url_tbl15[, `:=` (url ='NSE', rown =15),];</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="5"/>
+        <v>print(15);</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="6"/>
+        <v>url15 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/oil-gas.html';url15 =  read_html (url15);url_tbl15 = url15 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl15 = data.table(url_tbl15);url_tbl15 = url_tbl15[, `:=` (url ='NSE', rown =15),];print(15);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>url16 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/pharmaceuticals.html';</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>url16 =  read_html (url16);</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl16 = url16 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl16 = data.table(url_tbl16);</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl16 = url_tbl16[, `:=` (url ='NSE', rown =16),];</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="5"/>
+        <v>print(16);</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="6"/>
+        <v>url16 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/pharmaceuticals.html';url16 =  read_html (url16);url_tbl16 = url16 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl16 = data.table(url_tbl16);url_tbl16 = url_tbl16[, `:=` (url ='NSE', rown =16),];print(16);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>url17 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/retail-real-estate.html';</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>url17 =  read_html (url17);</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl17 = url17 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl17 = data.table(url_tbl17);</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl17 = url_tbl17[, `:=` (url ='NSE', rown =17),];</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="5"/>
+        <v>print(17);</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="6"/>
+        <v>url17 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/retail-real-estate.html';url17 =  read_html (url17);url_tbl17 = url17 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl17 = data.table(url_tbl17);url_tbl17 = url_tbl17[, `:=` (url ='NSE', rown =17),];print(17);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>url18 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/services.html';</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>url18 =  read_html (url18);</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl18 = url18 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl18 = data.table(url_tbl18);</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl18 = url_tbl18[, `:=` (url ='NSE', rown =18),];</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="5"/>
+        <v>print(18);</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="6"/>
+        <v>url18 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/services.html';url18 =  read_html (url18);url_tbl18 = url18 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl18 = data.table(url_tbl18);url_tbl18 = url_tbl18[, `:=` (url ='NSE', rown =18),];print(18);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>url19 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/telecom.html';</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>url19 =  read_html (url19);</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl19 = url19 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl19 = data.table(url_tbl19);</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl19 = url_tbl19[, `:=` (url ='NSE', rown =19),];</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="5"/>
+        <v>print(19);</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="6"/>
+        <v>url19 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/telecom.html';url19 =  read_html (url19);url_tbl19 = url19 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl19 = data.table(url_tbl19);url_tbl19 = url_tbl19[, `:=` (url ='NSE', rown =19),];print(19);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>url20 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/tobacco.html';</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>url20 =  read_html (url20);</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl20 = url20 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl20 = data.table(url_tbl20);</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl20 = url_tbl20[, `:=` (url ='NSE', rown =20),];</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="5"/>
+        <v>print(20);</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="6"/>
+        <v>url20 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/tobacco.html';url20 =  read_html (url20);url_tbl20 = url20 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl20 = data.table(url_tbl20);url_tbl20 = url_tbl20[, `:=` (url ='NSE', rown =20),];print(20);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>url21 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/utilities.html';</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>url21 =  read_html (url21);</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="4"/>
+        <v>url_tbl21 = url21 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="2"/>
+        <v>url_tbl21 = data.table(url_tbl21);</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="3"/>
+        <v>url_tbl21 = url_tbl21[, `:=` (url ='NSE', rown =21),];</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="5"/>
+        <v>print(21);</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="6"/>
+        <v>url21 = 'https://www.moneycontrol.com/india/stockmarket/sector-classification/marketstatistics/nse/utilities.html';url21 =  read_html (url21);url_tbl21 = url21 %&gt;%   html_nodes('table') %&gt;%   html_table(fill = TRUE) %&gt;%   .[[2]];url_tbl21 = data.table(url_tbl21);url_tbl21 = url_tbl21[, `:=` (url ='NSE', rown =21),];print(21);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="G25" s="7"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="7:7">
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="7:7">
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="7:7">
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="7:7">
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="7:7">
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="7:7">
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="7:7">
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="7:7">
+      <c r="G51" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="G11" r:id="rId10"/>
+    <hyperlink ref="G12" r:id="rId11"/>
+    <hyperlink ref="G13" r:id="rId12"/>
+    <hyperlink ref="G14" r:id="rId13"/>
+    <hyperlink ref="G15" r:id="rId14"/>
+    <hyperlink ref="G16" r:id="rId15"/>
+    <hyperlink ref="G17" r:id="rId16"/>
+    <hyperlink ref="G18" r:id="rId17"/>
+    <hyperlink ref="G19" r:id="rId18"/>
+    <hyperlink ref="G20" r:id="rId19"/>
+    <hyperlink ref="G21" r:id="rId20"/>
+    <hyperlink ref="G22" r:id="rId21"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>